--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7352,28 +7352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2107.288130605066</v>
+        <v>2211.262290941733</v>
       </c>
       <c r="AB2" t="n">
-        <v>2883.284587284892</v>
+        <v>3025.546620473912</v>
       </c>
       <c r="AC2" t="n">
-        <v>2608.107952989756</v>
+        <v>2736.79269739712</v>
       </c>
       <c r="AD2" t="n">
-        <v>2107288.130605066</v>
+        <v>2211262.290941733</v>
       </c>
       <c r="AE2" t="n">
-        <v>2883284.587284891</v>
+        <v>3025546.620473912</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.132938464006888e-06</v>
+        <v>1.915288685506288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.88333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2608107.952989756</v>
+        <v>2736792.69739712</v>
       </c>
     </row>
     <row r="3">
@@ -7458,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>743.1612117191287</v>
+        <v>795.2336327420327</v>
       </c>
       <c r="AB3" t="n">
-        <v>1016.825955832857</v>
+        <v>1088.073739549476</v>
       </c>
       <c r="AC3" t="n">
-        <v>919.7815137323603</v>
+        <v>984.2295089679582</v>
       </c>
       <c r="AD3" t="n">
-        <v>743161.2117191287</v>
+        <v>795233.6327420326</v>
       </c>
       <c r="AE3" t="n">
-        <v>1016825.955832857</v>
+        <v>1088073.739549476</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.104820520047821e-06</v>
+        <v>3.558303522339007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.62638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>919781.5137323603</v>
+        <v>984229.5089679582</v>
       </c>
     </row>
     <row r="4">
@@ -7564,28 +7564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>585.2691253829242</v>
+        <v>626.841810855227</v>
       </c>
       <c r="AB4" t="n">
-        <v>800.7910376004277</v>
+        <v>857.672619921074</v>
       </c>
       <c r="AC4" t="n">
-        <v>724.3646648891223</v>
+        <v>775.8175488268882</v>
       </c>
       <c r="AD4" t="n">
-        <v>585269.1253829242</v>
+        <v>626841.8108552269</v>
       </c>
       <c r="AE4" t="n">
-        <v>800791.0376004276</v>
+        <v>857672.619921074</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.457569065755863e-06</v>
+        <v>4.154642440901228e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.244444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>724364.6648891224</v>
+        <v>775817.5488268882</v>
       </c>
     </row>
     <row r="5">
@@ -7670,28 +7670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>516.7213362458303</v>
+        <v>558.3792730641536</v>
       </c>
       <c r="AB5" t="n">
-        <v>707.0009283880304</v>
+        <v>763.9991553613261</v>
       </c>
       <c r="AC5" t="n">
-        <v>639.5257520647111</v>
+        <v>691.0841482531896</v>
       </c>
       <c r="AD5" t="n">
-        <v>516721.3362458303</v>
+        <v>558379.2730641536</v>
       </c>
       <c r="AE5" t="n">
-        <v>707000.9283880304</v>
+        <v>763999.1553613261</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.646781168230359e-06</v>
+        <v>4.474514888120086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.655555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>639525.7520647112</v>
+        <v>691084.1482531896</v>
       </c>
     </row>
     <row r="6">
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>486.3740878642943</v>
+        <v>527.8614324820254</v>
       </c>
       <c r="AB6" t="n">
-        <v>665.4784843263038</v>
+        <v>722.2432995247526</v>
       </c>
       <c r="AC6" t="n">
-        <v>601.9661517871195</v>
+        <v>653.3134126929469</v>
       </c>
       <c r="AD6" t="n">
-        <v>486374.0878642943</v>
+        <v>527861.4324820254</v>
       </c>
       <c r="AE6" t="n">
-        <v>665478.4843263038</v>
+        <v>722243.2995247527</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.761446328249598e-06</v>
+        <v>4.668362030382248e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.337499999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>601966.1517871196</v>
+        <v>653313.412692947</v>
       </c>
     </row>
     <row r="7">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>466.7033192556305</v>
+        <v>497.9468613779241</v>
       </c>
       <c r="AB7" t="n">
-        <v>638.5640709028663</v>
+        <v>681.3128636023864</v>
       </c>
       <c r="AC7" t="n">
-        <v>577.6204122061984</v>
+        <v>616.2893201287839</v>
       </c>
       <c r="AD7" t="n">
-        <v>466703.3192556305</v>
+        <v>497946.861377924</v>
       </c>
       <c r="AE7" t="n">
-        <v>638564.0709028663</v>
+        <v>681312.8636023864</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.840369803530016e-06</v>
+        <v>4.801786081226814e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.133333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>577620.4122061983</v>
+        <v>616289.3201287838</v>
       </c>
     </row>
     <row r="8">
@@ -7988,28 +7988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>441.7875919395435</v>
+        <v>483.3601879032951</v>
       </c>
       <c r="AB8" t="n">
-        <v>604.473273584685</v>
+        <v>661.3547334357828</v>
       </c>
       <c r="AC8" t="n">
-        <v>546.7831927373296</v>
+        <v>598.2359658938692</v>
       </c>
       <c r="AD8" t="n">
-        <v>441787.5919395435</v>
+        <v>483360.1879032952</v>
       </c>
       <c r="AE8" t="n">
-        <v>604473.2735846849</v>
+        <v>661354.7334357828</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.899890649952217e-06</v>
+        <v>4.902409025301829e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.987500000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>546783.1927373296</v>
+        <v>598235.9658938692</v>
       </c>
     </row>
     <row r="9">
@@ -8094,28 +8094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>431.2952877531822</v>
+        <v>472.867883716934</v>
       </c>
       <c r="AB9" t="n">
-        <v>590.1172401091137</v>
+        <v>646.9986999602116</v>
       </c>
       <c r="AC9" t="n">
-        <v>533.7972789478474</v>
+        <v>585.2500521043871</v>
       </c>
       <c r="AD9" t="n">
-        <v>431295.2877531822</v>
+        <v>472867.883716934</v>
       </c>
       <c r="AE9" t="n">
-        <v>590117.2401091137</v>
+        <v>646998.6999602116</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.943364209348824e-06</v>
+        <v>4.975903234454658e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.883333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>533797.2789478474</v>
+        <v>585250.0521043871</v>
       </c>
     </row>
     <row r="10">
@@ -8200,28 +8200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>423.8239000796887</v>
+        <v>465.3964960434404</v>
       </c>
       <c r="AB10" t="n">
-        <v>579.8945578798787</v>
+        <v>636.7760177309767</v>
       </c>
       <c r="AC10" t="n">
-        <v>524.5502351629459</v>
+        <v>576.0030083194855</v>
       </c>
       <c r="AD10" t="n">
-        <v>423823.9000796887</v>
+        <v>465396.4960434404</v>
       </c>
       <c r="AE10" t="n">
-        <v>579894.5578798787</v>
+        <v>636776.0177309767</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.974145823552462e-06</v>
+        <v>5.027941080532668e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.8125</v>
       </c>
       <c r="AH10" t="n">
-        <v>524550.2351629459</v>
+        <v>576003.0083194855</v>
       </c>
     </row>
     <row r="11">
@@ -8306,28 +8306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>417.7623991723326</v>
+        <v>459.3349951360843</v>
       </c>
       <c r="AB11" t="n">
-        <v>571.6009449238871</v>
+        <v>628.4824047749852</v>
       </c>
       <c r="AC11" t="n">
-        <v>517.0481529873155</v>
+        <v>568.5009261438548</v>
       </c>
       <c r="AD11" t="n">
-        <v>417762.3991723325</v>
+        <v>459334.9951360843</v>
       </c>
       <c r="AE11" t="n">
-        <v>571600.9449238871</v>
+        <v>628482.4047749852</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.998800291800874e-06</v>
+        <v>5.069620682367662e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.756944444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>517048.1529873154</v>
+        <v>568500.9261438549</v>
       </c>
     </row>
     <row r="12">
@@ -8412,28 +8412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>410.5571310599093</v>
+        <v>452.1297270236609</v>
       </c>
       <c r="AB12" t="n">
-        <v>561.7423792184749</v>
+        <v>618.6238390695729</v>
       </c>
       <c r="AC12" t="n">
-        <v>508.1304749562439</v>
+        <v>559.5832481127834</v>
       </c>
       <c r="AD12" t="n">
-        <v>410557.1310599093</v>
+        <v>452129.7270236609</v>
       </c>
       <c r="AE12" t="n">
-        <v>561742.3792184748</v>
+        <v>618623.8390695729</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.026664217454404e-06</v>
+        <v>5.116726031187093e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.694444444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>508130.4749562439</v>
+        <v>559583.2481127834</v>
       </c>
     </row>
     <row r="13">
@@ -8518,28 +8518,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>406.8013455321652</v>
+        <v>448.3739414959168</v>
       </c>
       <c r="AB13" t="n">
-        <v>556.6035477658521</v>
+        <v>613.4850076169499</v>
       </c>
       <c r="AC13" t="n">
-        <v>503.482086365064</v>
+        <v>554.9348595216036</v>
       </c>
       <c r="AD13" t="n">
-        <v>406801.3455321652</v>
+        <v>448373.9414959168</v>
       </c>
       <c r="AE13" t="n">
-        <v>556603.5477658521</v>
+        <v>613485.00761695</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.042127966769976e-06</v>
+        <v>5.142868266657563e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.661111111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>503482.086365064</v>
+        <v>554934.8595216036</v>
       </c>
     </row>
     <row r="14">
@@ -8624,28 +8624,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>402.2504000538918</v>
+        <v>443.8229960176435</v>
       </c>
       <c r="AB14" t="n">
-        <v>550.3767433889337</v>
+        <v>607.2582032400318</v>
       </c>
       <c r="AC14" t="n">
-        <v>497.849559458504</v>
+        <v>549.3023326150435</v>
       </c>
       <c r="AD14" t="n">
-        <v>402250.4000538918</v>
+        <v>443822.9960176435</v>
       </c>
       <c r="AE14" t="n">
-        <v>550376.7433889337</v>
+        <v>607258.2032400317</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.058467022650579e-06</v>
+        <v>5.170490251305605e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.625</v>
       </c>
       <c r="AH14" t="n">
-        <v>497849.559458504</v>
+        <v>549302.3326150435</v>
       </c>
     </row>
     <row r="15">
@@ -8730,28 +8730,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>397.7006712847606</v>
+        <v>429.0294647530747</v>
       </c>
       <c r="AB15" t="n">
-        <v>544.1516037671412</v>
+        <v>587.0170411193106</v>
       </c>
       <c r="AC15" t="n">
-        <v>492.218538425177</v>
+        <v>530.9929585984746</v>
       </c>
       <c r="AD15" t="n">
-        <v>397700.6712847606</v>
+        <v>429029.4647530747</v>
       </c>
       <c r="AE15" t="n">
-        <v>544151.6037671412</v>
+        <v>587017.0411193107</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.075097847386194e-06</v>
+        <v>5.198605485679508e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.588888888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>492218.538425177</v>
+        <v>530992.9585984746</v>
       </c>
     </row>
     <row r="16">
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>394.5233156024407</v>
+        <v>425.8521090707548</v>
       </c>
       <c r="AB16" t="n">
-        <v>539.8042055475515</v>
+        <v>582.6696428997208</v>
       </c>
       <c r="AC16" t="n">
-        <v>488.2860497900532</v>
+        <v>527.0604699633508</v>
       </c>
       <c r="AD16" t="n">
-        <v>394523.3156024407</v>
+        <v>425852.1090707547</v>
       </c>
       <c r="AE16" t="n">
-        <v>539804.2055475515</v>
+        <v>582669.6428997208</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.085601526166583e-06</v>
+        <v>5.216362475810392e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.566666666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>488286.0497900532</v>
+        <v>527060.4699633508</v>
       </c>
     </row>
     <row r="17">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>390.8125878409</v>
+        <v>422.1413813092141</v>
       </c>
       <c r="AB17" t="n">
-        <v>534.7270241184564</v>
+        <v>577.5924614706258</v>
       </c>
       <c r="AC17" t="n">
-        <v>483.6934274306821</v>
+        <v>522.4678476039797</v>
       </c>
       <c r="AD17" t="n">
-        <v>390812.5878409</v>
+        <v>422141.381309214</v>
       </c>
       <c r="AE17" t="n">
-        <v>534727.0241184564</v>
+        <v>577592.4614706258</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.096396973801982e-06</v>
+        <v>5.234612715667135e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.543055555555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>483693.4274306821</v>
+        <v>522467.8476039797</v>
       </c>
     </row>
     <row r="18">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>386.4498883857869</v>
+        <v>417.7786818541011</v>
       </c>
       <c r="AB18" t="n">
-        <v>528.7577862552546</v>
+        <v>571.6232236074241</v>
       </c>
       <c r="AC18" t="n">
-        <v>478.2938852512663</v>
+        <v>517.0683054245638</v>
       </c>
       <c r="AD18" t="n">
-        <v>386449.8883857869</v>
+        <v>417778.6818541011</v>
       </c>
       <c r="AE18" t="n">
-        <v>528757.7862552546</v>
+        <v>571623.2236074241</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.109672456704973e-06</v>
+        <v>5.25705557819367e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.515277777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>478293.8852512663</v>
+        <v>517068.3054245639</v>
       </c>
     </row>
     <row r="19">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>384.7354164994339</v>
+        <v>416.064209967748</v>
       </c>
       <c r="AB19" t="n">
-        <v>526.4119701831851</v>
+        <v>569.2774075353545</v>
       </c>
       <c r="AC19" t="n">
-        <v>476.1719505727414</v>
+        <v>514.9463707460391</v>
       </c>
       <c r="AD19" t="n">
-        <v>384735.4164994339</v>
+        <v>416064.209967748</v>
       </c>
       <c r="AE19" t="n">
-        <v>526411.9701831851</v>
+        <v>569277.4075353545</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.114048989530135e-06</v>
+        <v>5.264454324081539e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.506944444444445</v>
       </c>
       <c r="AH19" t="n">
-        <v>476171.9505727415</v>
+        <v>514946.370746039</v>
       </c>
     </row>
     <row r="20">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>381.7485270820601</v>
+        <v>412.906728349782</v>
       </c>
       <c r="AB20" t="n">
-        <v>522.3251763100732</v>
+        <v>564.9572018873956</v>
       </c>
       <c r="AC20" t="n">
-        <v>472.4751945710282</v>
+        <v>511.0384794616747</v>
       </c>
       <c r="AD20" t="n">
-        <v>381748.5270820601</v>
+        <v>412906.7283497821</v>
       </c>
       <c r="AE20" t="n">
-        <v>522325.1763100732</v>
+        <v>564957.2018873956</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.118863175637813e-06</v>
+        <v>5.272592944558196e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.495833333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>472475.1945710282</v>
+        <v>511038.4794616747</v>
       </c>
     </row>
     <row r="21">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>379.2102314736613</v>
+        <v>410.3684327413832</v>
       </c>
       <c r="AB21" t="n">
-        <v>518.8521682769629</v>
+        <v>561.4841938542853</v>
       </c>
       <c r="AC21" t="n">
-        <v>469.3336455502006</v>
+        <v>507.896930440847</v>
       </c>
       <c r="AD21" t="n">
-        <v>379210.2314736613</v>
+        <v>410368.4327413832</v>
       </c>
       <c r="AE21" t="n">
-        <v>518852.1682769629</v>
+        <v>561484.1938542853</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.124844437165534e-06</v>
+        <v>5.282704563938282e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.483333333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>469333.6455502006</v>
+        <v>507896.930440847</v>
       </c>
     </row>
     <row r="22">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>375.1768575432866</v>
+        <v>406.3350588110086</v>
       </c>
       <c r="AB22" t="n">
-        <v>513.3335281255247</v>
+        <v>555.9655537028473</v>
       </c>
       <c r="AC22" t="n">
-        <v>464.3416966693556</v>
+        <v>502.9049815600021</v>
       </c>
       <c r="AD22" t="n">
-        <v>375176.8575432866</v>
+        <v>406335.0588110086</v>
       </c>
       <c r="AE22" t="n">
-        <v>513333.5281255248</v>
+        <v>555965.5537028472</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.136661075793471e-06</v>
+        <v>5.302681177835528e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.459722222222222</v>
       </c>
       <c r="AH22" t="n">
-        <v>464341.6966693556</v>
+        <v>502904.9815600021</v>
       </c>
     </row>
     <row r="23">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>372.7792623466615</v>
+        <v>403.9374636143834</v>
       </c>
       <c r="AB23" t="n">
-        <v>510.0530326030674</v>
+        <v>552.6850581803898</v>
       </c>
       <c r="AC23" t="n">
-        <v>461.3742870353572</v>
+        <v>499.9375719260037</v>
       </c>
       <c r="AD23" t="n">
-        <v>372779.2623466615</v>
+        <v>403937.4636143834</v>
       </c>
       <c r="AE23" t="n">
-        <v>510053.0326030675</v>
+        <v>552685.0581803898</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.142934106176203e-06</v>
+        <v>5.313286046941473e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.447222222222223</v>
       </c>
       <c r="AH23" t="n">
-        <v>461374.2870353572</v>
+        <v>499937.5719260037</v>
       </c>
     </row>
     <row r="24">
@@ -9684,28 +9684,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>371.2790615124499</v>
+        <v>402.4372627801717</v>
       </c>
       <c r="AB24" t="n">
-        <v>508.0003916375094</v>
+        <v>550.6324172148317</v>
       </c>
       <c r="AC24" t="n">
-        <v>459.5175472426523</v>
+        <v>498.0808321332988</v>
       </c>
       <c r="AD24" t="n">
-        <v>371279.0615124499</v>
+        <v>402437.2627801718</v>
       </c>
       <c r="AE24" t="n">
-        <v>508000.3916375094</v>
+        <v>550632.4172148317</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.142642337321192e-06</v>
+        <v>5.312792797215615e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.447222222222223</v>
       </c>
       <c r="AH24" t="n">
-        <v>459517.5472426523</v>
+        <v>498080.8321332988</v>
       </c>
     </row>
     <row r="25">
@@ -9790,28 +9790,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>367.6836208449416</v>
+        <v>398.8418221126635</v>
       </c>
       <c r="AB25" t="n">
-        <v>503.080951096577</v>
+        <v>545.7129766738994</v>
       </c>
       <c r="AC25" t="n">
-        <v>455.0676112024684</v>
+        <v>493.6308960931149</v>
       </c>
       <c r="AD25" t="n">
-        <v>367683.6208449416</v>
+        <v>398841.8221126635</v>
       </c>
       <c r="AE25" t="n">
-        <v>503080.951096577</v>
+        <v>545712.9766738995</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.148915367703924e-06</v>
+        <v>5.32339766632156e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6.434722222222222</v>
       </c>
       <c r="AH25" t="n">
-        <v>455067.6112024683</v>
+        <v>493630.8960931149</v>
       </c>
     </row>
     <row r="26">
@@ -9896,28 +9896,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>366.4330163840331</v>
+        <v>397.591217651755</v>
       </c>
       <c r="AB26" t="n">
-        <v>501.3698189003871</v>
+        <v>544.0018444777096</v>
       </c>
       <c r="AC26" t="n">
-        <v>453.5197870614937</v>
+        <v>492.0830719521402</v>
       </c>
       <c r="AD26" t="n">
-        <v>366433.0163840331</v>
+        <v>397591.217651755</v>
       </c>
       <c r="AE26" t="n">
-        <v>501369.8189003872</v>
+        <v>544001.8444777096</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.152708362819064e-06</v>
+        <v>5.329809912757713e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>6.42638888888889</v>
       </c>
       <c r="AH26" t="n">
-        <v>453519.7870614937</v>
+        <v>492083.0719521402</v>
       </c>
     </row>
     <row r="27">
@@ -10002,28 +10002,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>363.0717701476396</v>
+        <v>394.2299714153615</v>
       </c>
       <c r="AB27" t="n">
-        <v>496.7708135120353</v>
+        <v>539.4028390893576</v>
       </c>
       <c r="AC27" t="n">
-        <v>449.3597042926615</v>
+        <v>487.922989183308</v>
       </c>
       <c r="AD27" t="n">
-        <v>363071.7701476396</v>
+        <v>394229.9714153615</v>
       </c>
       <c r="AE27" t="n">
-        <v>496770.8135120352</v>
+        <v>539402.8390893576</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.158981393201796e-06</v>
+        <v>5.340414781863658e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>6.413888888888889</v>
       </c>
       <c r="AH27" t="n">
-        <v>449359.7042926616</v>
+        <v>487922.989183308</v>
       </c>
     </row>
     <row r="28">
@@ -10108,28 +10108,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>362.0480392808279</v>
+        <v>393.2062405485498</v>
       </c>
       <c r="AB28" t="n">
-        <v>495.3700997762451</v>
+        <v>538.0021253535675</v>
       </c>
       <c r="AC28" t="n">
-        <v>448.0926727099011</v>
+        <v>486.6559576005477</v>
       </c>
       <c r="AD28" t="n">
-        <v>362048.0392808279</v>
+        <v>393206.2405485498</v>
       </c>
       <c r="AE28" t="n">
-        <v>495370.0997762451</v>
+        <v>538002.1253535675</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.159273162056807e-06</v>
+        <v>5.340908031589516e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>6.413888888888889</v>
       </c>
       <c r="AH28" t="n">
-        <v>448092.6727099011</v>
+        <v>486655.9576005476</v>
       </c>
     </row>
     <row r="29">
@@ -10214,28 +10214,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>359.8872892916827</v>
+        <v>391.0454905594046</v>
       </c>
       <c r="AB29" t="n">
-        <v>492.413666315535</v>
+        <v>535.0456918928575</v>
       </c>
       <c r="AC29" t="n">
-        <v>445.4183971093008</v>
+        <v>483.9816819999473</v>
       </c>
       <c r="AD29" t="n">
-        <v>359887.2892916827</v>
+        <v>391045.4905594047</v>
       </c>
       <c r="AE29" t="n">
-        <v>492413.666315535</v>
+        <v>535045.6918928574</v>
       </c>
       <c r="AF29" t="n">
-        <v>3.165400308012033e-06</v>
+        <v>5.351266275832532e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>7</v>
+        <v>6.401388888888889</v>
       </c>
       <c r="AH29" t="n">
-        <v>445418.3971093008</v>
+        <v>483981.6819999473</v>
       </c>
     </row>
     <row r="30">
@@ -10320,28 +10320,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>361.6118124094681</v>
+        <v>392.7700136771901</v>
       </c>
       <c r="AB30" t="n">
-        <v>494.7732349258795</v>
+        <v>537.4052605032018</v>
       </c>
       <c r="AC30" t="n">
-        <v>447.5527718031493</v>
+        <v>486.1160566937958</v>
       </c>
       <c r="AD30" t="n">
-        <v>361611.8124094682</v>
+        <v>392770.0136771901</v>
       </c>
       <c r="AE30" t="n">
-        <v>494773.2349258795</v>
+        <v>537405.2605032019</v>
       </c>
       <c r="AF30" t="n">
-        <v>3.164525001447001e-06</v>
+        <v>5.349786526654959e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>7</v>
+        <v>6.402777777777778</v>
       </c>
       <c r="AH30" t="n">
-        <v>447552.7718031493</v>
+        <v>486116.0566937958</v>
       </c>
     </row>
     <row r="31">
@@ -10426,28 +10426,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>362.9447877070804</v>
+        <v>394.1029889748022</v>
       </c>
       <c r="AB31" t="n">
-        <v>496.5970705347922</v>
+        <v>539.2290961121145</v>
       </c>
       <c r="AC31" t="n">
-        <v>449.2025431013167</v>
+        <v>487.7658279919632</v>
       </c>
       <c r="AD31" t="n">
-        <v>362944.7877070804</v>
+        <v>394102.9889748022</v>
       </c>
       <c r="AE31" t="n">
-        <v>496597.0705347922</v>
+        <v>539229.0961121145</v>
       </c>
       <c r="AF31" t="n">
-        <v>3.164962654729518e-06</v>
+        <v>5.350526401243746e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>7</v>
+        <v>6.401388888888889</v>
       </c>
       <c r="AH31" t="n">
-        <v>449202.5431013167</v>
+        <v>487765.8279919632</v>
       </c>
     </row>
   </sheetData>
@@ -10723,28 +10723,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1299.26611828578</v>
+        <v>1369.81484184678</v>
       </c>
       <c r="AB2" t="n">
-        <v>1777.713222614331</v>
+        <v>1874.241098580513</v>
       </c>
       <c r="AC2" t="n">
-        <v>1608.050767684197</v>
+        <v>1695.366158645891</v>
       </c>
       <c r="AD2" t="n">
-        <v>1299266.11828578</v>
+        <v>1369814.84184678</v>
       </c>
       <c r="AE2" t="n">
-        <v>1777713.222614331</v>
+        <v>1874241.098580513</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.485913020629409e-06</v>
+        <v>2.573290807028053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.10555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1608050.767684197</v>
+        <v>1695366.158645891</v>
       </c>
     </row>
     <row r="3">
@@ -10829,28 +10829,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>588.0504705273314</v>
+        <v>638.4179688920605</v>
       </c>
       <c r="AB3" t="n">
-        <v>804.5965967312934</v>
+        <v>873.5116300511187</v>
       </c>
       <c r="AC3" t="n">
-        <v>727.807026797674</v>
+        <v>790.1449060603117</v>
       </c>
       <c r="AD3" t="n">
-        <v>588050.4705273315</v>
+        <v>638417.9688920605</v>
       </c>
       <c r="AE3" t="n">
-        <v>804596.5967312934</v>
+        <v>873511.6300511187</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.37767211456595e-06</v>
+        <v>4.117631186748625e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.815277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>727807.026797674</v>
+        <v>790144.9060603117</v>
       </c>
     </row>
     <row r="4">
@@ -10935,28 +10935,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>479.5669606530861</v>
+        <v>519.9292320285267</v>
       </c>
       <c r="AB4" t="n">
-        <v>656.1646725666711</v>
+        <v>711.3901129202894</v>
       </c>
       <c r="AC4" t="n">
-        <v>593.5412371498093</v>
+        <v>643.4960389854706</v>
       </c>
       <c r="AD4" t="n">
-        <v>479566.9606530861</v>
+        <v>519929.2320285267</v>
       </c>
       <c r="AE4" t="n">
-        <v>656164.6725666712</v>
+        <v>711390.1129202894</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.698065507090451e-06</v>
+        <v>4.672485582779558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.768055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>593541.2371498093</v>
+        <v>643496.0389854705</v>
       </c>
     </row>
     <row r="5">
@@ -11041,28 +11041,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>440.9116701512498</v>
+        <v>481.1033493260982</v>
       </c>
       <c r="AB5" t="n">
-        <v>603.2747987509995</v>
+        <v>658.2668273297708</v>
       </c>
       <c r="AC5" t="n">
-        <v>545.6990986597012</v>
+        <v>595.4427652127114</v>
       </c>
       <c r="AD5" t="n">
-        <v>440911.6701512499</v>
+        <v>481103.3493260982</v>
       </c>
       <c r="AE5" t="n">
-        <v>603274.7987509995</v>
+        <v>658266.8273297708</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.857733999455463e-06</v>
+        <v>4.948998042035669e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.334722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>545699.0986597012</v>
+        <v>595442.7652127114</v>
       </c>
     </row>
     <row r="6">
@@ -11147,28 +11147,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>418.1232570304564</v>
+        <v>448.395050070588</v>
       </c>
       <c r="AB6" t="n">
-        <v>572.0946865652975</v>
+        <v>613.5138893000595</v>
       </c>
       <c r="AC6" t="n">
-        <v>517.4947726194403</v>
+        <v>554.9609847774128</v>
       </c>
       <c r="AD6" t="n">
-        <v>418123.2570304564</v>
+        <v>448395.050070588</v>
       </c>
       <c r="AE6" t="n">
-        <v>572094.6865652974</v>
+        <v>613513.8893000595</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.960205555519588e-06</v>
+        <v>5.12645736135032e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.080555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>517494.7726194402</v>
+        <v>554960.9847774128</v>
       </c>
     </row>
     <row r="7">
@@ -11253,28 +11253,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>392.7189339623357</v>
+        <v>432.9958644832046</v>
       </c>
       <c r="AB7" t="n">
-        <v>537.3353709838602</v>
+        <v>592.4440442152807</v>
       </c>
       <c r="AC7" t="n">
-        <v>486.0528373320895</v>
+        <v>535.9020161358119</v>
       </c>
       <c r="AD7" t="n">
-        <v>392718.9339623357</v>
+        <v>432995.8644832046</v>
       </c>
       <c r="AE7" t="n">
-        <v>537335.3709838602</v>
+        <v>592444.0442152807</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.030381216152604e-06</v>
+        <v>5.247986939378762e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>486052.8373320895</v>
+        <v>535902.0161358119</v>
       </c>
     </row>
     <row r="8">
@@ -11359,28 +11359,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>382.3489707528055</v>
+        <v>422.6259012736743</v>
       </c>
       <c r="AB8" t="n">
-        <v>523.146729830092</v>
+        <v>578.2554030615127</v>
       </c>
       <c r="AC8" t="n">
-        <v>473.2183401761541</v>
+        <v>523.0675189798766</v>
       </c>
       <c r="AD8" t="n">
-        <v>382348.9707528055</v>
+        <v>422625.9012736743</v>
       </c>
       <c r="AE8" t="n">
-        <v>523146.729830092</v>
+        <v>578255.4030615126</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.079730551694531e-06</v>
+        <v>5.333449674895538e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.805555555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>473218.340176154</v>
+        <v>523067.5189798765</v>
       </c>
     </row>
     <row r="9">
@@ -11465,28 +11465,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>373.6136292558058</v>
+        <v>413.8905597766748</v>
       </c>
       <c r="AB9" t="n">
-        <v>511.1946502178288</v>
+        <v>566.3033234492495</v>
       </c>
       <c r="AC9" t="n">
-        <v>462.4069502672363</v>
+        <v>512.2561290709587</v>
       </c>
       <c r="AD9" t="n">
-        <v>373613.6292558059</v>
+        <v>413890.5597766748</v>
       </c>
       <c r="AE9" t="n">
-        <v>511194.6502178289</v>
+        <v>566303.3234492495</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.11972313248539e-06</v>
+        <v>5.402708466675189e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.718055555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>462406.9502672363</v>
+        <v>512256.1290709587</v>
       </c>
     </row>
     <row r="10">
@@ -11571,28 +11571,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>366.6041389222167</v>
+        <v>406.8810694430857</v>
       </c>
       <c r="AB10" t="n">
-        <v>501.6039563065235</v>
+        <v>556.7126295379441</v>
       </c>
       <c r="AC10" t="n">
-        <v>453.7315787222025</v>
+        <v>503.5807575259249</v>
       </c>
       <c r="AD10" t="n">
-        <v>366604.1389222167</v>
+        <v>406881.0694430856</v>
       </c>
       <c r="AE10" t="n">
-        <v>501603.9563065235</v>
+        <v>556712.6295379441</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.148095227537017e-06</v>
+        <v>5.451843005749052e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.658333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>453731.5787222025</v>
+        <v>503580.7575259249</v>
       </c>
     </row>
     <row r="11">
@@ -11677,28 +11677,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>360.4532377879833</v>
+        <v>400.7301683088521</v>
       </c>
       <c r="AB11" t="n">
-        <v>493.1880220160587</v>
+        <v>548.2966952474794</v>
       </c>
       <c r="AC11" t="n">
-        <v>446.1188493885816</v>
+        <v>495.9680281923041</v>
       </c>
       <c r="AD11" t="n">
-        <v>360453.2377879833</v>
+        <v>400730.1683088521</v>
       </c>
       <c r="AE11" t="n">
-        <v>493188.0220160587</v>
+        <v>548296.6952474794</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.170732537418636e-06</v>
+        <v>5.491046095435647e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>446118.8493885816</v>
+        <v>495968.0281923041</v>
       </c>
     </row>
     <row r="12">
@@ -11783,28 +11783,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>354.8247333302314</v>
+        <v>385.1817777163835</v>
       </c>
       <c r="AB12" t="n">
-        <v>485.486853904871</v>
+        <v>527.0227012922824</v>
       </c>
       <c r="AC12" t="n">
-        <v>439.1526699532683</v>
+        <v>476.7243943619531</v>
       </c>
       <c r="AD12" t="n">
-        <v>354824.7333302314</v>
+        <v>385181.7777163835</v>
       </c>
       <c r="AE12" t="n">
-        <v>485486.853904871</v>
+        <v>527022.7012922823</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.193520762699464e-06</v>
+        <v>5.530510539053486e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.563888888888888</v>
       </c>
       <c r="AH12" t="n">
-        <v>439152.6699532683</v>
+        <v>476724.3943619531</v>
       </c>
     </row>
     <row r="13">
@@ -11889,28 +11889,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>350.6746583821395</v>
+        <v>381.0317027682914</v>
       </c>
       <c r="AB13" t="n">
-        <v>479.8085382725066</v>
+        <v>521.344385659918</v>
       </c>
       <c r="AC13" t="n">
-        <v>434.0162847952907</v>
+        <v>471.5880092039756</v>
       </c>
       <c r="AD13" t="n">
-        <v>350674.6583821395</v>
+        <v>381031.7027682915</v>
       </c>
       <c r="AE13" t="n">
-        <v>479808.5382725066</v>
+        <v>521344.385659918</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.206801317830013e-06</v>
+        <v>5.553509685002953e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.536111111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>434016.2847952907</v>
+        <v>471588.0092039756</v>
       </c>
     </row>
     <row r="14">
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>345.5307506792444</v>
+        <v>375.8877950653963</v>
       </c>
       <c r="AB14" t="n">
-        <v>472.7704168202139</v>
+        <v>514.3062642076253</v>
       </c>
       <c r="AC14" t="n">
-        <v>427.6498717763394</v>
+        <v>465.2215961850241</v>
       </c>
       <c r="AD14" t="n">
-        <v>345530.7506792444</v>
+        <v>375887.7950653963</v>
       </c>
       <c r="AE14" t="n">
-        <v>472770.416820214</v>
+        <v>514306.2642076253</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.223100180944779e-06</v>
+        <v>5.581735909577302e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.502777777777777</v>
       </c>
       <c r="AH14" t="n">
-        <v>427649.8717763394</v>
+        <v>465221.5961850241</v>
       </c>
     </row>
     <row r="15">
@@ -12101,28 +12101,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>341.3848308794045</v>
+        <v>371.5712830649644</v>
       </c>
       <c r="AB15" t="n">
-        <v>467.0977864450003</v>
+        <v>508.4002220575647</v>
       </c>
       <c r="AC15" t="n">
-        <v>422.5186292825494</v>
+        <v>459.8792184085831</v>
       </c>
       <c r="AD15" t="n">
-        <v>341384.8308794046</v>
+        <v>371571.2830649644</v>
       </c>
       <c r="AE15" t="n">
-        <v>467097.7864450003</v>
+        <v>508400.2220575647</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.234117005087166e-06</v>
+        <v>5.600814746558111e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.480555555555555</v>
       </c>
       <c r="AH15" t="n">
-        <v>422518.6292825494</v>
+        <v>459879.2184085831</v>
       </c>
     </row>
     <row r="16">
@@ -12207,28 +12207,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>337.9010331748819</v>
+        <v>368.0874853604417</v>
       </c>
       <c r="AB16" t="n">
-        <v>462.3311007313649</v>
+        <v>503.6335363439292</v>
       </c>
       <c r="AC16" t="n">
-        <v>418.2068693633379</v>
+        <v>455.5674584893717</v>
       </c>
       <c r="AD16" t="n">
-        <v>337901.0331748819</v>
+        <v>368087.4853604417</v>
       </c>
       <c r="AE16" t="n">
-        <v>462331.1007313649</v>
+        <v>503633.5363439292</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.245133829229554e-06</v>
+        <v>5.619893583538922e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.459722222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>418206.8693633379</v>
+        <v>455567.4584893717</v>
       </c>
     </row>
     <row r="17">
@@ -12313,28 +12313,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>332.8931503965029</v>
+        <v>363.0796025820628</v>
       </c>
       <c r="AB17" t="n">
-        <v>455.4790945817912</v>
+        <v>496.7815301943556</v>
       </c>
       <c r="AC17" t="n">
-        <v>412.0088090638286</v>
+        <v>449.3693981898622</v>
       </c>
       <c r="AD17" t="n">
-        <v>332893.1503965029</v>
+        <v>363079.6025820628</v>
       </c>
       <c r="AE17" t="n">
-        <v>455479.0945817912</v>
+        <v>496781.5301943556</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.255245160976677e-06</v>
+        <v>5.637404296932266e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.438888888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>412008.8090638286</v>
+        <v>449369.3981898623</v>
       </c>
     </row>
     <row r="18">
@@ -12419,28 +12419,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>330.8445809711262</v>
+        <v>361.0310331566861</v>
       </c>
       <c r="AB18" t="n">
-        <v>452.6761515174862</v>
+        <v>493.9785871300506</v>
       </c>
       <c r="AC18" t="n">
-        <v>409.4733749516255</v>
+        <v>446.8339640776593</v>
       </c>
       <c r="AD18" t="n">
-        <v>330844.5809711262</v>
+        <v>361031.0331566861</v>
       </c>
       <c r="AE18" t="n">
-        <v>452676.1515174862</v>
+        <v>493978.5871300506</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.260979946146686e-06</v>
+        <v>5.647335746319537e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.427777777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>409473.3749516255</v>
+        <v>446833.9640776593</v>
       </c>
     </row>
     <row r="19">
@@ -12525,28 +12525,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>326.1712801156083</v>
+        <v>356.3577323011681</v>
       </c>
       <c r="AB19" t="n">
-        <v>446.2819351154837</v>
+        <v>487.584370728048</v>
       </c>
       <c r="AC19" t="n">
-        <v>403.689413588691</v>
+        <v>441.0500027147248</v>
       </c>
       <c r="AD19" t="n">
-        <v>326171.2801156083</v>
+        <v>356357.7323011681</v>
       </c>
       <c r="AE19" t="n">
-        <v>446281.9351154837</v>
+        <v>487584.370728048</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.267167477514328e-06</v>
+        <v>5.658051257500539e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.415277777777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>403689.413588691</v>
+        <v>441050.0027147247</v>
       </c>
     </row>
     <row r="20">
@@ -12631,28 +12631,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>324.7783167339114</v>
+        <v>354.9647689194712</v>
       </c>
       <c r="AB20" t="n">
-        <v>444.3760211634386</v>
+        <v>485.6784567760031</v>
       </c>
       <c r="AC20" t="n">
-        <v>401.9653973892622</v>
+        <v>439.3259865152959</v>
       </c>
       <c r="AD20" t="n">
-        <v>324778.3167339114</v>
+        <v>354964.7689194712</v>
       </c>
       <c r="AE20" t="n">
-        <v>444376.0211634386</v>
+        <v>485678.4567760031</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.271996770289073e-06</v>
+        <v>5.666414583300346e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.405555555555555</v>
       </c>
       <c r="AH20" t="n">
-        <v>401965.3973892622</v>
+        <v>439325.9865152959</v>
       </c>
     </row>
     <row r="21">
@@ -12737,28 +12737,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>323.3647526628606</v>
+        <v>353.5512048484204</v>
       </c>
       <c r="AB21" t="n">
-        <v>442.4419204393814</v>
+        <v>483.7443560519458</v>
       </c>
       <c r="AC21" t="n">
-        <v>400.2158845237815</v>
+        <v>437.5764736498152</v>
       </c>
       <c r="AD21" t="n">
-        <v>323364.7526628606</v>
+        <v>353551.2048484203</v>
       </c>
       <c r="AE21" t="n">
-        <v>442441.9204393814</v>
+        <v>483744.3560519458</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.278033386257505e-06</v>
+        <v>5.676868740550104e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.394444444444444</v>
       </c>
       <c r="AH21" t="n">
-        <v>400215.8845237815</v>
+        <v>437576.4736498152</v>
       </c>
     </row>
     <row r="22">
@@ -12843,28 +12843,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>324.7954122277447</v>
+        <v>354.9818644133045</v>
       </c>
       <c r="AB22" t="n">
-        <v>444.3994119723014</v>
+        <v>485.7018475848658</v>
       </c>
       <c r="AC22" t="n">
-        <v>401.9865558121562</v>
+        <v>439.34714493819</v>
       </c>
       <c r="AD22" t="n">
-        <v>324795.4122277447</v>
+        <v>354981.8644133045</v>
       </c>
       <c r="AE22" t="n">
-        <v>444399.4119723014</v>
+        <v>485701.8475848658</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.277882470858295e-06</v>
+        <v>5.67660738661886e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.394444444444444</v>
       </c>
       <c r="AH22" t="n">
-        <v>401986.5558121562</v>
+        <v>439347.14493819</v>
       </c>
     </row>
   </sheetData>
@@ -13140,28 +13140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.8001371930441</v>
+        <v>492.2616891524566</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.6458561903912</v>
+        <v>673.5341601514048</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.125970968036</v>
+        <v>609.2530052176847</v>
       </c>
       <c r="AD2" t="n">
-        <v>455800.1371930441</v>
+        <v>492261.6891524566</v>
       </c>
       <c r="AE2" t="n">
-        <v>623645.8561903912</v>
+        <v>673534.1601514048</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.575335090720415e-06</v>
+        <v>4.873088177278933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.081944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>564125.970968036</v>
+        <v>609253.0052176848</v>
       </c>
     </row>
     <row r="3">
@@ -13246,28 +13246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.0013663612069</v>
+        <v>349.2922366114761</v>
       </c>
       <c r="AB3" t="n">
-        <v>428.2622781011228</v>
+        <v>477.9170478177408</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.3895273490333</v>
+        <v>432.3053155348044</v>
       </c>
       <c r="AD3" t="n">
-        <v>313001.3663612069</v>
+        <v>349292.2366114761</v>
       </c>
       <c r="AE3" t="n">
-        <v>428262.2781011228</v>
+        <v>477917.0478177408</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.202286803448598e-06</v>
+        <v>6.059415731323885e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.304166666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>387389.5273490333</v>
+        <v>432305.3155348044</v>
       </c>
     </row>
     <row r="4">
@@ -13352,28 +13352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>273.1731787427627</v>
+        <v>309.5493003390525</v>
       </c>
       <c r="AB4" t="n">
-        <v>373.7675947059393</v>
+        <v>423.5390090752066</v>
       </c>
       <c r="AC4" t="n">
-        <v>338.0957400533176</v>
+        <v>383.1170404898008</v>
       </c>
       <c r="AD4" t="n">
-        <v>273173.1787427627</v>
+        <v>309549.3003390525</v>
       </c>
       <c r="AE4" t="n">
-        <v>373767.5947059393</v>
+        <v>423539.0090752066</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.406555518876824e-06</v>
+        <v>6.445936097441675e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.865277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>338095.7400533176</v>
+        <v>383117.0404898009</v>
       </c>
     </row>
     <row r="5">
@@ -13458,28 +13458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>255.9792798619793</v>
+        <v>292.3554014582724</v>
       </c>
       <c r="AB5" t="n">
-        <v>350.2421437158026</v>
+        <v>400.0135580852398</v>
       </c>
       <c r="AC5" t="n">
-        <v>316.815525087607</v>
+        <v>361.8368255241386</v>
       </c>
       <c r="AD5" t="n">
-        <v>255979.2798619793</v>
+        <v>292355.4014582724</v>
       </c>
       <c r="AE5" t="n">
-        <v>350242.1437158026</v>
+        <v>400013.5580852398</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.51652045801502e-06</v>
+        <v>6.654013425615554e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.651388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>316815.525087607</v>
+        <v>361836.8255241386</v>
       </c>
     </row>
     <row r="6">
@@ -13564,28 +13564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>243.5254809196699</v>
+        <v>270.9569186123905</v>
       </c>
       <c r="AB6" t="n">
-        <v>333.2023065801102</v>
+        <v>370.7352098210679</v>
       </c>
       <c r="AC6" t="n">
-        <v>301.4019460925781</v>
+        <v>335.3527617258793</v>
       </c>
       <c r="AD6" t="n">
-        <v>243525.4809196698</v>
+        <v>270956.9186123905</v>
       </c>
       <c r="AE6" t="n">
-        <v>333202.3065801102</v>
+        <v>370735.2098210679</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.582027902616487e-06</v>
+        <v>6.777967607330163e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.529166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>301401.9460925781</v>
+        <v>335352.7617258793</v>
       </c>
     </row>
     <row r="7">
@@ -13670,28 +13670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>239.6556598625747</v>
+        <v>266.9165053547032</v>
       </c>
       <c r="AB7" t="n">
-        <v>327.9074466853394</v>
+        <v>365.2069381514473</v>
       </c>
       <c r="AC7" t="n">
-        <v>296.6124201947799</v>
+        <v>330.3521005454294</v>
       </c>
       <c r="AD7" t="n">
-        <v>239655.6598625747</v>
+        <v>266916.5053547032</v>
       </c>
       <c r="AE7" t="n">
-        <v>327907.4466853394</v>
+        <v>365206.9381514473</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.605940645890031e-06</v>
+        <v>6.823215663380226e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.486111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>296612.4201947799</v>
+        <v>330352.1005454294</v>
       </c>
     </row>
     <row r="8">
@@ -13776,28 +13776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>240.9760121358811</v>
+        <v>268.2368576280097</v>
       </c>
       <c r="AB8" t="n">
-        <v>329.7140109155076</v>
+        <v>367.0135023816165</v>
       </c>
       <c r="AC8" t="n">
-        <v>298.2465684703503</v>
+        <v>331.986248821</v>
       </c>
       <c r="AD8" t="n">
-        <v>240976.0121358811</v>
+        <v>268236.8576280096</v>
       </c>
       <c r="AE8" t="n">
-        <v>329714.0109155076</v>
+        <v>367013.5023816165</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.606277445091067e-06</v>
+        <v>6.823852959944311e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.486111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>298246.5684703504</v>
+        <v>331986.248821</v>
       </c>
     </row>
   </sheetData>
@@ -14073,28 +14073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>656.87830429104</v>
+        <v>704.2762068398816</v>
       </c>
       <c r="AB2" t="n">
-        <v>898.7698753565217</v>
+        <v>963.6217766717286</v>
       </c>
       <c r="AC2" t="n">
-        <v>812.9925398839371</v>
+        <v>871.6550667578359</v>
       </c>
       <c r="AD2" t="n">
-        <v>656878.3042910399</v>
+        <v>704276.2068398816</v>
       </c>
       <c r="AE2" t="n">
-        <v>898769.8753565217</v>
+        <v>963621.7766717286</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.140408533710827e-06</v>
+        <v>3.899359505668551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.45416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>812992.5398839371</v>
+        <v>871655.0667578359</v>
       </c>
     </row>
     <row r="3">
@@ -14179,28 +14179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>397.8283552902651</v>
+        <v>435.8148784061551</v>
       </c>
       <c r="AB3" t="n">
-        <v>544.3263066564933</v>
+        <v>596.3011434307784</v>
       </c>
       <c r="AC3" t="n">
-        <v>492.3765679159665</v>
+        <v>539.3909992156553</v>
       </c>
       <c r="AD3" t="n">
-        <v>397828.3552902651</v>
+        <v>435814.878406155</v>
       </c>
       <c r="AE3" t="n">
-        <v>544326.3066564933</v>
+        <v>596301.1434307784</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.874069565061053e-06</v>
+        <v>5.235930572115531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.786111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>492376.5679159664</v>
+        <v>539390.9992156553</v>
       </c>
     </row>
     <row r="4">
@@ -14285,28 +14285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>350.0201935444533</v>
+        <v>378.5101753899218</v>
       </c>
       <c r="AB4" t="n">
-        <v>478.9130706086336</v>
+        <v>517.8943206588957</v>
       </c>
       <c r="AC4" t="n">
-        <v>433.206279308461</v>
+        <v>468.4672135644543</v>
       </c>
       <c r="AD4" t="n">
-        <v>350020.1935444533</v>
+        <v>378510.1753899218</v>
       </c>
       <c r="AE4" t="n">
-        <v>478913.0706086336</v>
+        <v>517894.3206588957</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.126033959666181e-06</v>
+        <v>5.694954978774089e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.158333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>433206.279308461</v>
+        <v>468467.2135644542</v>
       </c>
     </row>
     <row r="5">
@@ -14391,28 +14391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>317.604422983904</v>
+        <v>355.5056052452222</v>
       </c>
       <c r="AB5" t="n">
-        <v>434.560383244823</v>
+        <v>486.4184528969103</v>
       </c>
       <c r="AC5" t="n">
-        <v>393.0865501772648</v>
+        <v>439.9953584450148</v>
       </c>
       <c r="AD5" t="n">
-        <v>317604.422983904</v>
+        <v>355505.6052452222</v>
       </c>
       <c r="AE5" t="n">
-        <v>434560.383244823</v>
+        <v>486418.4528969103</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.256688131037511e-06</v>
+        <v>5.932978504221718e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.870833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>393086.5501772648</v>
+        <v>439995.3584450148</v>
       </c>
     </row>
     <row r="6">
@@ -14497,28 +14497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>303.6011000826503</v>
+        <v>341.5022823439687</v>
       </c>
       <c r="AB6" t="n">
-        <v>415.4004190683224</v>
+        <v>467.2584887204097</v>
       </c>
       <c r="AC6" t="n">
-        <v>375.7551860905908</v>
+        <v>422.6639943583408</v>
       </c>
       <c r="AD6" t="n">
-        <v>303601.1000826503</v>
+        <v>341502.2823439686</v>
       </c>
       <c r="AE6" t="n">
-        <v>415400.4190683224</v>
+        <v>467258.4887204097</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.335145074881946e-06</v>
+        <v>6.075910017036754e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.709722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>375755.1860905908</v>
+        <v>422663.9943583408</v>
       </c>
     </row>
     <row r="7">
@@ -14603,28 +14603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>293.2888285514902</v>
+        <v>331.1900108128083</v>
       </c>
       <c r="AB7" t="n">
-        <v>401.2907142140775</v>
+        <v>453.1487838661648</v>
       </c>
       <c r="AC7" t="n">
-        <v>362.9920916645398</v>
+        <v>409.9008999322899</v>
       </c>
       <c r="AD7" t="n">
-        <v>293288.8285514902</v>
+        <v>331190.0108128084</v>
       </c>
       <c r="AE7" t="n">
-        <v>401290.7142140775</v>
+        <v>453148.7838661648</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.388147815179317e-06</v>
+        <v>6.172469499000097e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.604166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>362992.0916645398</v>
+        <v>409900.8999322899</v>
       </c>
     </row>
     <row r="8">
@@ -14709,28 +14709,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>284.5752415641995</v>
+        <v>313.1504747556884</v>
       </c>
       <c r="AB8" t="n">
-        <v>389.3684000817391</v>
+        <v>428.4662947846505</v>
       </c>
       <c r="AC8" t="n">
-        <v>352.207626459919</v>
+        <v>387.5740729666244</v>
       </c>
       <c r="AD8" t="n">
-        <v>284575.2415641994</v>
+        <v>313150.4747556885</v>
       </c>
       <c r="AE8" t="n">
-        <v>389368.4000817391</v>
+        <v>428466.2947846506</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.427295735824487e-06</v>
+        <v>6.243788508474541e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.529166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>352207.626459919</v>
+        <v>387574.0729666244</v>
       </c>
     </row>
     <row r="9">
@@ -14815,28 +14815,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>277.567420057012</v>
+        <v>305.9720610479088</v>
       </c>
       <c r="AB9" t="n">
-        <v>379.7799895323402</v>
+        <v>418.6444724604046</v>
       </c>
       <c r="AC9" t="n">
-        <v>343.5343203559358</v>
+        <v>378.6896315799901</v>
       </c>
       <c r="AD9" t="n">
-        <v>277567.4200570121</v>
+        <v>305972.0610479089</v>
       </c>
       <c r="AE9" t="n">
-        <v>379779.9895323401</v>
+        <v>418644.4724604046</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.450977811276503e-06</v>
+        <v>6.286932106798586e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.483333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>343534.3203559358</v>
+        <v>378689.6315799901</v>
       </c>
     </row>
     <row r="10">
@@ -14921,28 +14921,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>271.9782015008514</v>
+        <v>300.3828424917482</v>
       </c>
       <c r="AB10" t="n">
-        <v>372.1325741248812</v>
+        <v>410.9970570529457</v>
       </c>
       <c r="AC10" t="n">
-        <v>336.6167635417498</v>
+        <v>371.7720747658042</v>
       </c>
       <c r="AD10" t="n">
-        <v>271978.2015008514</v>
+        <v>300382.8424917483</v>
       </c>
       <c r="AE10" t="n">
-        <v>372132.5741248812</v>
+        <v>410997.0570529457</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.471115630538422e-06</v>
+        <v>6.323618840067332e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.445833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>336616.7635417499</v>
+        <v>371772.0747658042</v>
       </c>
     </row>
     <row r="11">
@@ -15027,28 +15027,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>269.8806406833799</v>
+        <v>298.2852816742767</v>
       </c>
       <c r="AB11" t="n">
-        <v>369.2625988765643</v>
+        <v>408.1270818046287</v>
       </c>
       <c r="AC11" t="n">
-        <v>334.0206947030968</v>
+        <v>369.1760059271512</v>
       </c>
       <c r="AD11" t="n">
-        <v>269880.6406833798</v>
+        <v>298285.2816742767</v>
       </c>
       <c r="AE11" t="n">
-        <v>369262.5988765643</v>
+        <v>408127.0818046287</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.480942886338238e-06</v>
+        <v>6.34152196590248e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.427777777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>334020.6947030968</v>
+        <v>369176.0059271511</v>
       </c>
     </row>
     <row r="12">
@@ -15133,28 +15133,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>271.2011560273721</v>
+        <v>299.6057970182689</v>
       </c>
       <c r="AB12" t="n">
-        <v>371.0693862272399</v>
+        <v>409.9338691553044</v>
       </c>
       <c r="AC12" t="n">
-        <v>335.6550448048658</v>
+        <v>370.8103560289202</v>
       </c>
       <c r="AD12" t="n">
-        <v>271201.1560273721</v>
+        <v>299605.7970182689</v>
       </c>
       <c r="AE12" t="n">
-        <v>371069.3862272399</v>
+        <v>409933.8691553044</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.48158729655462e-06</v>
+        <v>6.342695941367081e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.42638888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>335655.0448048658</v>
+        <v>370810.3560289202</v>
       </c>
     </row>
   </sheetData>
@@ -15430,28 +15430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.2098620103916</v>
+        <v>372.3352105326404</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.3854098517897</v>
+        <v>509.4454613209404</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.3514338940239</v>
+        <v>460.8247015036647</v>
       </c>
       <c r="AD2" t="n">
-        <v>337209.8620103917</v>
+        <v>372335.2105326404</v>
       </c>
       <c r="AE2" t="n">
-        <v>461385.4098517897</v>
+        <v>509445.4613209404</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.948066439576624e-06</v>
+        <v>5.777260353184631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.240277777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>417351.4338940239</v>
+        <v>460824.7015036647</v>
       </c>
     </row>
     <row r="3">
@@ -15536,28 +15536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.1981941794283</v>
+        <v>280.323453193129</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.4909866570115</v>
+        <v>383.5509156567762</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.4721977551233</v>
+        <v>346.9453545835837</v>
       </c>
       <c r="AD3" t="n">
-        <v>245198.1941794283</v>
+        <v>280323.453193129</v>
       </c>
       <c r="AE3" t="n">
-        <v>335490.9866570116</v>
+        <v>383550.9156567762</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.474157080905913e-06</v>
+        <v>6.808228503539364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.991666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>303472.1977551233</v>
+        <v>346945.3545835837</v>
       </c>
     </row>
     <row r="4">
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.1539852772148</v>
+        <v>256.279244290912</v>
       </c>
       <c r="AB4" t="n">
-        <v>302.5926392813872</v>
+        <v>350.6525682809647</v>
       </c>
       <c r="AC4" t="n">
-        <v>273.7136224798975</v>
+        <v>317.1867793083047</v>
       </c>
       <c r="AD4" t="n">
-        <v>221153.9852772148</v>
+        <v>256279.244290912</v>
       </c>
       <c r="AE4" t="n">
-        <v>302592.6392813871</v>
+        <v>350652.5682809647</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.655000738862856e-06</v>
+        <v>7.162623805223803e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.645833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>273713.6224798975</v>
+        <v>317186.7793083047</v>
       </c>
     </row>
     <row r="5">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>216.1195639126868</v>
+        <v>242.61285466846</v>
       </c>
       <c r="AB5" t="n">
-        <v>295.704321867448</v>
+        <v>331.953611080977</v>
       </c>
       <c r="AC5" t="n">
-        <v>267.4827164121283</v>
+        <v>300.2724243393266</v>
       </c>
       <c r="AD5" t="n">
-        <v>216119.5639126868</v>
+        <v>242612.85466846</v>
       </c>
       <c r="AE5" t="n">
-        <v>295704.321867448</v>
+        <v>331953.611080977</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.691729141349275e-06</v>
+        <v>7.234599640188728e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.580555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>267482.7164121283</v>
+        <v>300272.4243393266</v>
       </c>
     </row>
   </sheetData>
@@ -16045,28 +16045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1453.833740707365</v>
+        <v>1535.154051772922</v>
       </c>
       <c r="AB2" t="n">
-        <v>1989.19946265378</v>
+        <v>2100.465499852599</v>
       </c>
       <c r="AC2" t="n">
-        <v>1799.353057797083</v>
+        <v>1900.000020568511</v>
       </c>
       <c r="AD2" t="n">
-        <v>1453833.740707365</v>
+        <v>1535154.051772922</v>
       </c>
       <c r="AE2" t="n">
-        <v>1989199.46265378</v>
+        <v>2100465.4998526</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.391653352857514e-06</v>
+        <v>2.394313440652513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.92638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1799353.057797083</v>
+        <v>1900000.020568511</v>
       </c>
     </row>
     <row r="3">
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>631.6287979347046</v>
+        <v>672.3317134033198</v>
       </c>
       <c r="AB3" t="n">
-        <v>864.2223868301804</v>
+        <v>919.9139114602374</v>
       </c>
       <c r="AC3" t="n">
-        <v>781.7422151748453</v>
+        <v>832.1186188577553</v>
       </c>
       <c r="AD3" t="n">
-        <v>631628.7979347046</v>
+        <v>672331.7134033198</v>
       </c>
       <c r="AE3" t="n">
-        <v>864222.3868301804</v>
+        <v>919913.9114602373</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.307258062819223e-06</v>
+        <v>3.969594137447213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.002777777777776</v>
       </c>
       <c r="AH3" t="n">
-        <v>781742.2151748453</v>
+        <v>832118.6188577553</v>
       </c>
     </row>
     <row r="4">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>503.7194008562797</v>
+        <v>544.4222268163441</v>
       </c>
       <c r="AB4" t="n">
-        <v>689.2111067831411</v>
+        <v>744.9025089436495</v>
       </c>
       <c r="AC4" t="n">
-        <v>623.4337660656209</v>
+        <v>673.8100589673044</v>
       </c>
       <c r="AD4" t="n">
-        <v>503719.4008562797</v>
+        <v>544422.2268163441</v>
       </c>
       <c r="AE4" t="n">
-        <v>689211.106783141</v>
+        <v>744902.5089436496</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.631054893441095e-06</v>
+        <v>4.526680499511984e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.894444444444446</v>
       </c>
       <c r="AH4" t="n">
-        <v>623433.7660656209</v>
+        <v>673810.0589673044</v>
       </c>
     </row>
     <row r="5">
@@ -16363,28 +16363,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>458.9453748973407</v>
+        <v>499.4776086568128</v>
       </c>
       <c r="AB5" t="n">
-        <v>627.9493091755045</v>
+        <v>683.4072995611659</v>
       </c>
       <c r="AC5" t="n">
-        <v>568.0187084401842</v>
+        <v>618.1838660592167</v>
       </c>
       <c r="AD5" t="n">
-        <v>458945.3748973407</v>
+        <v>499477.6086568128</v>
       </c>
       <c r="AE5" t="n">
-        <v>627949.3091755045</v>
+        <v>683407.299561166</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.804095509159111e-06</v>
+        <v>4.824393626952602e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.408333333333335</v>
       </c>
       <c r="AH5" t="n">
-        <v>568018.7084401842</v>
+        <v>618183.8660592167</v>
       </c>
     </row>
     <row r="6">
@@ -16469,28 +16469,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>434.9617332438527</v>
+        <v>465.488942222452</v>
       </c>
       <c r="AB6" t="n">
-        <v>595.1338325816081</v>
+        <v>636.9025066715378</v>
       </c>
       <c r="AC6" t="n">
-        <v>538.3350948755988</v>
+        <v>576.1174253330879</v>
       </c>
       <c r="AD6" t="n">
-        <v>434961.7332438527</v>
+        <v>465488.942222452</v>
       </c>
       <c r="AE6" t="n">
-        <v>595133.8325816081</v>
+        <v>636902.5066715379</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.908787325064566e-06</v>
+        <v>5.004513928774929e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.141666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>538335.0948755988</v>
+        <v>576117.4253330879</v>
       </c>
     </row>
     <row r="7">
@@ -16575,28 +16575,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>408.6057587895392</v>
+        <v>449.2232438950319</v>
       </c>
       <c r="AB7" t="n">
-        <v>559.072425589686</v>
+        <v>614.6470606279967</v>
       </c>
       <c r="AC7" t="n">
-        <v>505.7153379544829</v>
+        <v>555.9860078242276</v>
       </c>
       <c r="AD7" t="n">
-        <v>408605.7587895392</v>
+        <v>449223.2438950319</v>
       </c>
       <c r="AE7" t="n">
-        <v>559072.4255896859</v>
+        <v>614647.0606279967</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.980426439091299e-06</v>
+        <v>5.127767678164779e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.969444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>505715.3379544829</v>
+        <v>555986.0078242276</v>
       </c>
     </row>
     <row r="8">
@@ -16681,28 +16681,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>396.5133625998411</v>
+        <v>437.1308477053337</v>
       </c>
       <c r="AB8" t="n">
-        <v>542.5270756440721</v>
+        <v>598.1017106823828</v>
       </c>
       <c r="AC8" t="n">
-        <v>490.749052986134</v>
+        <v>541.0197228558786</v>
       </c>
       <c r="AD8" t="n">
-        <v>396513.3625998411</v>
+        <v>437130.8477053337</v>
       </c>
       <c r="AE8" t="n">
-        <v>542527.075644072</v>
+        <v>598101.7106823828</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.035165302836151e-06</v>
+        <v>5.221944864546168e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.844444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>490749.052986134</v>
+        <v>541019.7228558786</v>
       </c>
     </row>
     <row r="9">
@@ -16787,28 +16787,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>387.480533137912</v>
+        <v>428.0980182434046</v>
       </c>
       <c r="AB9" t="n">
-        <v>530.1679598739495</v>
+        <v>585.7425949122603</v>
       </c>
       <c r="AC9" t="n">
-        <v>479.5694738789841</v>
+        <v>529.8401437487287</v>
       </c>
       <c r="AD9" t="n">
-        <v>387480.533137912</v>
+        <v>428098.0182434046</v>
       </c>
       <c r="AE9" t="n">
-        <v>530167.9598739495</v>
+        <v>585742.5949122603</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.073901274721169e-06</v>
+        <v>5.288589376220429e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.758333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>479569.473878984</v>
+        <v>529840.1437487287</v>
       </c>
     </row>
     <row r="10">
@@ -16893,28 +16893,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>380.2544670428517</v>
+        <v>420.8719521483445</v>
       </c>
       <c r="AB10" t="n">
-        <v>520.2809374511512</v>
+        <v>575.855572489462</v>
       </c>
       <c r="AC10" t="n">
-        <v>470.6260549996945</v>
+        <v>520.8967248694391</v>
       </c>
       <c r="AD10" t="n">
-        <v>380254.4670428517</v>
+        <v>420871.9521483445</v>
       </c>
       <c r="AE10" t="n">
-        <v>520280.9374511512</v>
+        <v>575855.572489462</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.104561020807767e-06</v>
+        <v>5.341338893182683e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.690277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>470626.0549996945</v>
+        <v>520896.7248694391</v>
       </c>
     </row>
     <row r="11">
@@ -16999,28 +16999,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>375.4242766218895</v>
+        <v>416.0417617273822</v>
       </c>
       <c r="AB11" t="n">
-        <v>513.6720578242285</v>
+        <v>569.2466928625395</v>
       </c>
       <c r="AC11" t="n">
-        <v>464.6479175687446</v>
+        <v>514.9185874384891</v>
       </c>
       <c r="AD11" t="n">
-        <v>375424.2766218895</v>
+        <v>416041.7617273822</v>
       </c>
       <c r="AE11" t="n">
-        <v>513672.0578242286</v>
+        <v>569246.6928625394</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.125349824251851e-06</v>
+        <v>5.377105638830258e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.645833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>464647.9175687446</v>
+        <v>514918.5874384891</v>
       </c>
     </row>
     <row r="12">
@@ -17105,28 +17105,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>370.080402419593</v>
+        <v>410.6978875250857</v>
       </c>
       <c r="AB12" t="n">
-        <v>506.3603333855555</v>
+        <v>561.9349684238663</v>
       </c>
       <c r="AC12" t="n">
-        <v>458.0340138484287</v>
+        <v>508.3046837181734</v>
       </c>
       <c r="AD12" t="n">
-        <v>370080.402419593</v>
+        <v>410697.8875250857</v>
       </c>
       <c r="AE12" t="n">
-        <v>506360.3333855555</v>
+        <v>561934.9684238663</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.143296992692786e-06</v>
+        <v>5.407983404856943e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.608333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>458034.0138484287</v>
+        <v>508304.6837181734</v>
       </c>
     </row>
     <row r="13">
@@ -17211,28 +17211,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>364.1914031402958</v>
+        <v>394.8038634649157</v>
       </c>
       <c r="AB13" t="n">
-        <v>498.3027447673089</v>
+        <v>540.188063509888</v>
       </c>
       <c r="AC13" t="n">
-        <v>450.745430179011</v>
+        <v>488.6332728872124</v>
       </c>
       <c r="AD13" t="n">
-        <v>364191.4031402958</v>
+        <v>394803.8634649157</v>
       </c>
       <c r="AE13" t="n">
-        <v>498302.7447673089</v>
+        <v>540188.063509888</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.167226550614033e-06</v>
+        <v>5.44915375955919e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.558333333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>450745.430179011</v>
+        <v>488633.2728872124</v>
       </c>
     </row>
     <row r="14">
@@ -17317,28 +17317,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>361.2389056558279</v>
+        <v>391.8513659804477</v>
       </c>
       <c r="AB14" t="n">
-        <v>494.2630074540638</v>
+        <v>536.1483261966429</v>
       </c>
       <c r="AC14" t="n">
-        <v>447.091239725135</v>
+        <v>484.9790824333363</v>
       </c>
       <c r="AD14" t="n">
-        <v>361238.9056558278</v>
+        <v>391851.3659804477</v>
       </c>
       <c r="AE14" t="n">
-        <v>494263.0074540637</v>
+        <v>536148.3261966428</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.176648814045523e-06</v>
+        <v>5.465364586723199e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.538888888888888</v>
       </c>
       <c r="AH14" t="n">
-        <v>447091.239725135</v>
+        <v>484979.0824333363</v>
       </c>
     </row>
     <row r="15">
@@ -17423,28 +17423,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>355.3297545527864</v>
+        <v>385.9422148774061</v>
       </c>
       <c r="AB15" t="n">
-        <v>486.1778462215345</v>
+        <v>528.0631649641136</v>
       </c>
       <c r="AC15" t="n">
-        <v>439.7777149330433</v>
+        <v>477.6655576412447</v>
       </c>
       <c r="AD15" t="n">
-        <v>355329.7545527864</v>
+        <v>385942.2148774061</v>
       </c>
       <c r="AE15" t="n">
-        <v>486177.8462215345</v>
+        <v>528063.1649641136</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.194745542223466e-06</v>
+        <v>5.496499667466772e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.501388888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>439777.7149330433</v>
+        <v>477665.5576412447</v>
       </c>
     </row>
     <row r="16">
@@ -17529,28 +17529,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>351.4650161351256</v>
+        <v>381.9068842591533</v>
       </c>
       <c r="AB16" t="n">
-        <v>480.8899406182655</v>
+        <v>522.5418475859976</v>
       </c>
       <c r="AC16" t="n">
-        <v>434.9944796189282</v>
+        <v>472.6711870444785</v>
       </c>
       <c r="AD16" t="n">
-        <v>351465.0161351256</v>
+        <v>381906.8842591533</v>
       </c>
       <c r="AE16" t="n">
-        <v>480889.9406182655</v>
+        <v>522541.8475859976</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.205513843288028e-06</v>
+        <v>5.515026327082784e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.480555555555555</v>
       </c>
       <c r="AH16" t="n">
-        <v>434994.4796189282</v>
+        <v>472671.1870444785</v>
       </c>
     </row>
     <row r="17">
@@ -17635,28 +17635,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>349.0578496489053</v>
+        <v>379.499717772933</v>
       </c>
       <c r="AB17" t="n">
-        <v>477.5963492351286</v>
+        <v>519.2482562028606</v>
       </c>
       <c r="AC17" t="n">
-        <v>432.0152239748132</v>
+        <v>469.6919314003635</v>
       </c>
       <c r="AD17" t="n">
-        <v>349057.8496489053</v>
+        <v>379499.717772933</v>
       </c>
       <c r="AE17" t="n">
-        <v>477596.3492351286</v>
+        <v>519248.2562028606</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.209252836713222e-06</v>
+        <v>5.52145919500501e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.472222222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>432015.2239748132</v>
+        <v>469691.9314003635</v>
       </c>
     </row>
     <row r="18">
@@ -17741,28 +17741,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>345.3076325629262</v>
+        <v>375.7495006869538</v>
       </c>
       <c r="AB18" t="n">
-        <v>472.4651367701908</v>
+        <v>514.1170437379228</v>
       </c>
       <c r="AC18" t="n">
-        <v>427.3737272258272</v>
+        <v>465.0504346513775</v>
       </c>
       <c r="AD18" t="n">
-        <v>345307.6325629262</v>
+        <v>375749.5006869538</v>
       </c>
       <c r="AE18" t="n">
-        <v>472465.1367701908</v>
+        <v>514117.0437379229</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.220619376725815e-06</v>
+        <v>5.541015113488577e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.449999999999999</v>
       </c>
       <c r="AH18" t="n">
-        <v>427373.7272258272</v>
+        <v>465050.4346513775</v>
       </c>
     </row>
     <row r="19">
@@ -17847,28 +17847,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>341.4912833682268</v>
+        <v>371.9331514922545</v>
       </c>
       <c r="AB19" t="n">
-        <v>467.2434394365592</v>
+        <v>508.8953464042913</v>
       </c>
       <c r="AC19" t="n">
-        <v>422.6503813570192</v>
+        <v>460.3270887825694</v>
       </c>
       <c r="AD19" t="n">
-        <v>341491.2833682268</v>
+        <v>371933.1514922545</v>
       </c>
       <c r="AE19" t="n">
-        <v>467243.4394365592</v>
+        <v>508895.3464042913</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.228246923313212e-06</v>
+        <v>5.554138164049918e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.434722222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>422650.3813570192</v>
+        <v>460327.0887825695</v>
       </c>
     </row>
     <row r="20">
@@ -17953,28 +17953,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>338.1255966751998</v>
+        <v>368.5674647992275</v>
       </c>
       <c r="AB20" t="n">
-        <v>462.6383584195422</v>
+        <v>504.2902653872742</v>
       </c>
       <c r="AC20" t="n">
-        <v>418.4848028089945</v>
+        <v>456.1615102345448</v>
       </c>
       <c r="AD20" t="n">
-        <v>338125.5966751998</v>
+        <v>368567.4647992275</v>
       </c>
       <c r="AE20" t="n">
-        <v>462638.3584195421</v>
+        <v>504290.2653872743</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.231836357001399e-06</v>
+        <v>5.560313717255255e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.427777777777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>418484.8028089945</v>
+        <v>456161.5102345448</v>
       </c>
     </row>
     <row r="21">
@@ -18059,28 +18059,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>335.4013453895622</v>
+        <v>365.8432135135898</v>
       </c>
       <c r="AB21" t="n">
-        <v>458.9109176250483</v>
+        <v>500.5628245927804</v>
       </c>
       <c r="AC21" t="n">
-        <v>415.1131037324311</v>
+        <v>452.7898111579814</v>
       </c>
       <c r="AD21" t="n">
-        <v>335401.3453895621</v>
+        <v>365843.2135135898</v>
       </c>
       <c r="AE21" t="n">
-        <v>458910.9176250483</v>
+        <v>500562.8245927804</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.237370067270688e-06</v>
+        <v>5.56983436178015e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>415113.1037324311</v>
+        <v>452789.8111579814</v>
       </c>
     </row>
     <row r="22">
@@ -18165,28 +18165,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>333.4882804504572</v>
+        <v>363.9301485744849</v>
       </c>
       <c r="AB22" t="n">
-        <v>456.2933777768963</v>
+        <v>497.9452847446285</v>
       </c>
       <c r="AC22" t="n">
-        <v>412.7453782136465</v>
+        <v>450.4220856391967</v>
       </c>
       <c r="AD22" t="n">
-        <v>333488.2804504572</v>
+        <v>363930.1485744849</v>
       </c>
       <c r="AE22" t="n">
-        <v>456293.3777768963</v>
+        <v>497945.2847446285</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.243502016488007e-06</v>
+        <v>5.5803842651726e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.404166666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>412745.3782136465</v>
+        <v>450422.0856391967</v>
       </c>
     </row>
     <row r="23">
@@ -18271,28 +18271,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>332.8180235944333</v>
+        <v>363.2598917184609</v>
       </c>
       <c r="AB23" t="n">
-        <v>455.3763027768389</v>
+        <v>497.028209744571</v>
       </c>
       <c r="AC23" t="n">
-        <v>411.9158275644717</v>
+        <v>449.5925349900219</v>
       </c>
       <c r="AD23" t="n">
-        <v>332818.0235944333</v>
+        <v>363259.8917184609</v>
       </c>
       <c r="AE23" t="n">
-        <v>455376.3027768389</v>
+        <v>497028.209744571</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.24395069569903e-06</v>
+        <v>5.581156209323267e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.402777777777778</v>
       </c>
       <c r="AH23" t="n">
-        <v>411915.8275644717</v>
+        <v>449592.534990022</v>
       </c>
     </row>
     <row r="24">
@@ -18377,28 +18377,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>332.9431773384683</v>
+        <v>363.3850454624959</v>
       </c>
       <c r="AB24" t="n">
-        <v>455.547543650821</v>
+        <v>497.199450618553</v>
       </c>
       <c r="AC24" t="n">
-        <v>412.070725449779</v>
+        <v>449.7474328753293</v>
       </c>
       <c r="AD24" t="n">
-        <v>332943.1773384683</v>
+        <v>363385.0454624959</v>
       </c>
       <c r="AE24" t="n">
-        <v>455547.543650821</v>
+        <v>497199.450618553</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.242455098328953e-06</v>
+        <v>5.578583062154377e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.406944444444445</v>
       </c>
       <c r="AH24" t="n">
-        <v>412070.7254497791</v>
+        <v>449747.4328753293</v>
       </c>
     </row>
   </sheetData>
@@ -18674,28 +18674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.5940686897216</v>
+        <v>310.0639706214067</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.0799631334954</v>
+        <v>424.2432036611742</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.091980687086</v>
+        <v>383.7540277328269</v>
       </c>
       <c r="AD2" t="n">
-        <v>275594.0686897216</v>
+        <v>310063.9706214067</v>
       </c>
       <c r="AE2" t="n">
-        <v>377079.9631334954</v>
+        <v>424243.2036611742</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.181486215565194e-06</v>
+        <v>6.377799355062135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.813888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>341091.980687086</v>
+        <v>383754.0277328269</v>
       </c>
     </row>
     <row r="3">
@@ -18780,28 +18780,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.0758628683804</v>
+        <v>245.4604239454935</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.8033075862455</v>
+        <v>335.8497809917025</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.2403252482872</v>
+        <v>303.7967492620825</v>
       </c>
       <c r="AD3" t="n">
-        <v>211075.8628683804</v>
+        <v>245460.4239454935</v>
       </c>
       <c r="AE3" t="n">
-        <v>288803.3075862455</v>
+        <v>335849.7809917025</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.653652777402661e-06</v>
+        <v>7.324332952736055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.804166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>261240.3252482872</v>
+        <v>303796.7492620825</v>
       </c>
     </row>
     <row r="4">
@@ -18886,28 +18886,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.2539673654954</v>
+        <v>236.6385284426085</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.7328009646428</v>
+        <v>323.7792743700998</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.321810837584</v>
+        <v>292.8782348513793</v>
       </c>
       <c r="AD4" t="n">
-        <v>202253.9673654955</v>
+        <v>236638.5284426085</v>
       </c>
       <c r="AE4" t="n">
-        <v>276732.8009646428</v>
+        <v>323779.2743700998</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.732227879998054e-06</v>
+        <v>7.481849347496801e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.661111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>250321.810837584</v>
+        <v>292878.2348513792</v>
       </c>
     </row>
   </sheetData>
@@ -19183,28 +19183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>928.8371733981807</v>
+        <v>987.6374325180498</v>
       </c>
       <c r="AB2" t="n">
-        <v>1270.875998047441</v>
+        <v>1351.329106659598</v>
       </c>
       <c r="AC2" t="n">
-        <v>1149.585376479459</v>
+        <v>1222.360153322318</v>
       </c>
       <c r="AD2" t="n">
-        <v>928837.1733981806</v>
+        <v>987637.4325180497</v>
       </c>
       <c r="AE2" t="n">
-        <v>1270875.998047441</v>
+        <v>1351329.106659597</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.786109330214321e-06</v>
+        <v>3.163332344056723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.09166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1149585.376479459</v>
+        <v>1222360.153322318</v>
       </c>
     </row>
     <row r="3">
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>493.5658668682944</v>
+        <v>532.7376224995337</v>
       </c>
       <c r="AB3" t="n">
-        <v>675.3185936384741</v>
+        <v>728.9151178290283</v>
       </c>
       <c r="AC3" t="n">
-        <v>610.8671348772166</v>
+        <v>659.3484820222184</v>
       </c>
       <c r="AD3" t="n">
-        <v>493565.8668682944</v>
+        <v>532737.6224995337</v>
       </c>
       <c r="AE3" t="n">
-        <v>675318.5936384741</v>
+        <v>728915.1178290283</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.610359835956997e-06</v>
+        <v>4.623141237226801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.273611111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>610867.1348772165</v>
+        <v>659348.4820222184</v>
       </c>
     </row>
     <row r="4">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>414.2635668958317</v>
+        <v>453.3499816724993</v>
       </c>
       <c r="AB4" t="n">
-        <v>566.8136882455926</v>
+        <v>620.2934453139493</v>
       </c>
       <c r="AC4" t="n">
-        <v>512.7177853674403</v>
+        <v>561.0935094805035</v>
       </c>
       <c r="AD4" t="n">
-        <v>414263.5668958317</v>
+        <v>453349.9816724993</v>
       </c>
       <c r="AE4" t="n">
-        <v>566813.6882455926</v>
+        <v>620293.4453139493</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.897082705715438e-06</v>
+        <v>5.130948745056573e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.454166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>512717.7853674404</v>
+        <v>561093.5094805035</v>
       </c>
     </row>
     <row r="5">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>384.5038122799548</v>
+        <v>413.9466570214507</v>
       </c>
       <c r="AB5" t="n">
-        <v>526.0950790724365</v>
+        <v>566.3800781743876</v>
       </c>
       <c r="AC5" t="n">
-        <v>475.8853031048435</v>
+        <v>512.3255584328556</v>
       </c>
       <c r="AD5" t="n">
-        <v>384503.8122799548</v>
+        <v>413946.6570214507</v>
       </c>
       <c r="AE5" t="n">
-        <v>526095.0790724366</v>
+        <v>566380.0781743876</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.042931974605577e-06</v>
+        <v>5.389258637868031e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.097222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>475885.3031048435</v>
+        <v>512325.5584328556</v>
       </c>
     </row>
     <row r="6">
@@ -19607,28 +19607,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>356.5557034238662</v>
+        <v>395.7273695465543</v>
       </c>
       <c r="AB6" t="n">
-        <v>487.8552435519932</v>
+        <v>541.4516452729989</v>
       </c>
       <c r="AC6" t="n">
-        <v>441.2950238165249</v>
+        <v>489.7762601803001</v>
       </c>
       <c r="AD6" t="n">
-        <v>356555.7034238662</v>
+        <v>395727.3695465543</v>
       </c>
       <c r="AE6" t="n">
-        <v>487855.2435519932</v>
+        <v>541451.645272999</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.134670853758224e-06</v>
+        <v>5.551735009679075e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.888888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>441295.0238165249</v>
+        <v>489776.2601803002</v>
       </c>
     </row>
     <row r="7">
@@ -19713,28 +19713,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>344.6991431072074</v>
+        <v>383.8708092298956</v>
       </c>
       <c r="AB7" t="n">
-        <v>471.6325746522162</v>
+        <v>525.2289763732219</v>
       </c>
       <c r="AC7" t="n">
-        <v>426.6206236678838</v>
+        <v>475.1018600316591</v>
       </c>
       <c r="AD7" t="n">
-        <v>344699.1431072074</v>
+        <v>383870.8092298956</v>
       </c>
       <c r="AE7" t="n">
-        <v>471632.5746522162</v>
+        <v>525228.976373222</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.195000828523015e-06</v>
+        <v>5.658583877920914e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.759722222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>426620.6236678838</v>
+        <v>475101.8600316591</v>
       </c>
     </row>
     <row r="8">
@@ -19819,28 +19819,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>335.8275664704938</v>
+        <v>374.9992325931819</v>
       </c>
       <c r="AB8" t="n">
-        <v>459.494092111526</v>
+        <v>513.0904938325318</v>
       </c>
       <c r="AC8" t="n">
-        <v>415.6406208644098</v>
+        <v>464.1218572281851</v>
       </c>
       <c r="AD8" t="n">
-        <v>335827.5664704937</v>
+        <v>374999.232593182</v>
       </c>
       <c r="AE8" t="n">
-        <v>459494.092111526</v>
+        <v>513090.4938325318</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.238848902965466e-06</v>
+        <v>5.736242075972973e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.668055555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>415640.6208644098</v>
+        <v>464121.8572281852</v>
       </c>
     </row>
     <row r="9">
@@ -19925,28 +19925,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>327.3645910411222</v>
+        <v>356.8926871286386</v>
       </c>
       <c r="AB9" t="n">
-        <v>447.9146757689343</v>
+        <v>488.3163195235346</v>
       </c>
       <c r="AC9" t="n">
-        <v>405.1663277657422</v>
+        <v>441.7120953444665</v>
       </c>
       <c r="AD9" t="n">
-        <v>327364.5910411222</v>
+        <v>356892.6871286386</v>
       </c>
       <c r="AE9" t="n">
-        <v>447914.6757689343</v>
+        <v>488316.3195235346</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.27336759986697e-06</v>
+        <v>5.797377253162891e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>405166.3277657422</v>
+        <v>441712.0953444666</v>
       </c>
     </row>
     <row r="10">
@@ -20031,28 +20031,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>321.2795023275978</v>
+        <v>350.8075984151142</v>
       </c>
       <c r="AB10" t="n">
-        <v>439.5887889359227</v>
+        <v>479.9904326905231</v>
       </c>
       <c r="AC10" t="n">
-        <v>397.6350518866178</v>
+        <v>434.1808194653422</v>
       </c>
       <c r="AD10" t="n">
-        <v>321279.5023275978</v>
+        <v>350807.5984151142</v>
       </c>
       <c r="AE10" t="n">
-        <v>439588.7889359227</v>
+        <v>479990.432690523</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.29933436735594e-06</v>
+        <v>5.843366327895848e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.545833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>397635.0518866178</v>
+        <v>434180.8194653422</v>
       </c>
     </row>
     <row r="11">
@@ -20137,28 +20137,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>315.5394479540459</v>
+        <v>345.0675440415624</v>
       </c>
       <c r="AB11" t="n">
-        <v>431.7349933087025</v>
+        <v>472.1366370633027</v>
       </c>
       <c r="AC11" t="n">
-        <v>390.5308114911879</v>
+        <v>427.0765790699124</v>
       </c>
       <c r="AD11" t="n">
-        <v>315539.4479540459</v>
+        <v>345067.5440415624</v>
       </c>
       <c r="AE11" t="n">
-        <v>431734.9933087025</v>
+        <v>472136.6370633027</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.319548018694658e-06</v>
+        <v>5.879166206430484e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.505555555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>390530.8114911879</v>
+        <v>427076.5790699124</v>
       </c>
     </row>
     <row r="12">
@@ -20243,28 +20243,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>309.1552352207161</v>
+        <v>338.5127391076404</v>
       </c>
       <c r="AB12" t="n">
-        <v>422.9998317953727</v>
+        <v>463.168063775126</v>
       </c>
       <c r="AC12" t="n">
-        <v>382.6293215328143</v>
+        <v>418.9639538288876</v>
       </c>
       <c r="AD12" t="n">
-        <v>309155.235220716</v>
+        <v>338512.7391076403</v>
       </c>
       <c r="AE12" t="n">
-        <v>422999.8317953727</v>
+        <v>463168.063775126</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.336651877519728e-06</v>
+        <v>5.909458411344408e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.472222222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>382629.3215328143</v>
+        <v>418963.9538288875</v>
       </c>
     </row>
     <row r="13">
@@ -20349,28 +20349,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>304.177858428969</v>
+        <v>333.5353623158933</v>
       </c>
       <c r="AB13" t="n">
-        <v>416.1895652825381</v>
+        <v>456.3577972622913</v>
       </c>
       <c r="AC13" t="n">
-        <v>376.4690172976954</v>
+        <v>412.8036495937687</v>
       </c>
       <c r="AD13" t="n">
-        <v>304177.858428969</v>
+        <v>333535.3623158933</v>
       </c>
       <c r="AE13" t="n">
-        <v>416189.5652825381</v>
+        <v>456357.7972622913</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.351112412708195e-06</v>
+        <v>5.935069093680725e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.444444444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>376469.0172976954</v>
+        <v>412803.6495937687</v>
       </c>
     </row>
     <row r="14">
@@ -20455,28 +20455,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>299.9942254747771</v>
+        <v>329.3517293617014</v>
       </c>
       <c r="AB14" t="n">
-        <v>410.465334105753</v>
+        <v>450.6335660855063</v>
       </c>
       <c r="AC14" t="n">
-        <v>371.2910987104137</v>
+        <v>407.6257310064871</v>
       </c>
       <c r="AD14" t="n">
-        <v>299994.2254747771</v>
+        <v>329351.7293617014</v>
       </c>
       <c r="AE14" t="n">
-        <v>410465.3341057529</v>
+        <v>450633.5660855063</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.362307665757332e-06</v>
+        <v>5.954896718715293e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.422222222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>371291.0987104137</v>
+        <v>407625.7310064871</v>
       </c>
     </row>
     <row r="15">
@@ -20561,28 +20561,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>296.3095943158984</v>
+        <v>325.6670982028227</v>
       </c>
       <c r="AB15" t="n">
-        <v>405.4238591997209</v>
+        <v>445.5920911794742</v>
       </c>
       <c r="AC15" t="n">
-        <v>366.7307750936588</v>
+        <v>403.0654073897322</v>
       </c>
       <c r="AD15" t="n">
-        <v>296309.5943158984</v>
+        <v>325667.0982028227</v>
       </c>
       <c r="AE15" t="n">
-        <v>405423.8591997209</v>
+        <v>445592.0911794742</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.370704105544185e-06</v>
+        <v>5.96976743749122e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.406944444444445</v>
       </c>
       <c r="AH15" t="n">
-        <v>366730.7750936588</v>
+        <v>403065.4073897323</v>
       </c>
     </row>
     <row r="16">
@@ -20667,28 +20667,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>297.6519809581403</v>
+        <v>327.0094848450646</v>
       </c>
       <c r="AB16" t="n">
-        <v>407.2605718255552</v>
+        <v>447.4288038053085</v>
       </c>
       <c r="AC16" t="n">
-        <v>368.392194444326</v>
+        <v>404.7268267403993</v>
       </c>
       <c r="AD16" t="n">
-        <v>297651.9809581403</v>
+        <v>327009.4848450646</v>
       </c>
       <c r="AE16" t="n">
-        <v>407260.5718255552</v>
+        <v>447428.8038053085</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.37039312629282e-06</v>
+        <v>5.969216670129148e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.406944444444445</v>
       </c>
       <c r="AH16" t="n">
-        <v>368392.194444326</v>
+        <v>404726.8267403993</v>
       </c>
     </row>
     <row r="17">
@@ -20773,28 +20773,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>299.0619292563521</v>
+        <v>328.4194331432764</v>
       </c>
       <c r="AB17" t="n">
-        <v>409.1897252896975</v>
+        <v>449.3579572694508</v>
       </c>
       <c r="AC17" t="n">
-        <v>370.1372322094344</v>
+        <v>406.4718645055078</v>
       </c>
       <c r="AD17" t="n">
-        <v>299061.9292563521</v>
+        <v>328419.4331432764</v>
       </c>
       <c r="AE17" t="n">
-        <v>409189.7252896975</v>
+        <v>449357.9572694508</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.37039312629282e-06</v>
+        <v>5.969216670129148e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.406944444444445</v>
       </c>
       <c r="AH17" t="n">
-        <v>370137.2322094344</v>
+        <v>406471.8645055078</v>
       </c>
     </row>
   </sheetData>
@@ -21070,28 +21070,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1158.008381653032</v>
+        <v>1227.853131309219</v>
       </c>
       <c r="AB2" t="n">
-        <v>1584.438155501886</v>
+        <v>1680.002823314367</v>
       </c>
       <c r="AC2" t="n">
-        <v>1433.221601713703</v>
+        <v>1519.665711756014</v>
       </c>
       <c r="AD2" t="n">
-        <v>1158008.381653032</v>
+        <v>1227853.131309219</v>
       </c>
       <c r="AE2" t="n">
-        <v>1584438.155501886</v>
+        <v>1680002.823314367</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581381115762829e-06</v>
+        <v>2.757790580949559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.38055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1433221.601713703</v>
+        <v>1519665.711756014</v>
       </c>
     </row>
     <row r="3">
@@ -21176,28 +21176,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>556.4333509854221</v>
+        <v>606.3589685999787</v>
       </c>
       <c r="AB3" t="n">
-        <v>761.3366589251822</v>
+        <v>829.6470915082185</v>
       </c>
       <c r="AC3" t="n">
-        <v>688.675756740074</v>
+        <v>750.4667375116796</v>
       </c>
       <c r="AD3" t="n">
-        <v>556433.350985422</v>
+        <v>606358.9685999786</v>
       </c>
       <c r="AE3" t="n">
-        <v>761336.6589251822</v>
+        <v>829647.0915082186</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449464892026471e-06</v>
+        <v>4.27165288636869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.638888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>688675.756740074</v>
+        <v>750466.7375116796</v>
       </c>
     </row>
     <row r="4">
@@ -21282,28 +21282,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>457.7336685007782</v>
+        <v>497.7424352760808</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.291399027014</v>
+        <v>681.0331587912013</v>
       </c>
       <c r="AC4" t="n">
-        <v>566.5190269093744</v>
+        <v>616.03630995221</v>
       </c>
       <c r="AD4" t="n">
-        <v>457733.6685007782</v>
+        <v>497742.4352760807</v>
       </c>
       <c r="AE4" t="n">
-        <v>626291.399027014</v>
+        <v>681033.1587912013</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.760865951816377e-06</v>
+        <v>4.81470914334951e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.663888888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>566519.0269093744</v>
+        <v>616036.3099522099</v>
       </c>
     </row>
     <row r="5">
@@ -21388,28 +21388,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>420.9827952860603</v>
+        <v>450.9894598760882</v>
       </c>
       <c r="AB5" t="n">
-        <v>576.0072329605387</v>
+        <v>617.0636752532278</v>
       </c>
       <c r="AC5" t="n">
-        <v>521.0339110780131</v>
+        <v>558.1719841413664</v>
       </c>
       <c r="AD5" t="n">
-        <v>420982.7952860603</v>
+        <v>450989.4598760882</v>
       </c>
       <c r="AE5" t="n">
-        <v>576007.2329605387</v>
+        <v>617063.6752532277</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.921289296218907e-06</v>
+        <v>5.094473447948728e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.243055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>521033.9110780132</v>
+        <v>558171.9841413663</v>
       </c>
     </row>
     <row r="6">
@@ -21494,28 +21494,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>400.47219867386</v>
+        <v>430.4788632638879</v>
       </c>
       <c r="AB6" t="n">
-        <v>547.943729812066</v>
+        <v>589.0001721047547</v>
       </c>
       <c r="AC6" t="n">
-        <v>495.6487492826564</v>
+        <v>532.7868223460098</v>
       </c>
       <c r="AD6" t="n">
-        <v>400472.1986738599</v>
+        <v>430478.8632638879</v>
       </c>
       <c r="AE6" t="n">
-        <v>547943.729812066</v>
+        <v>589000.1721047547</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.018792563472107e-06</v>
+        <v>5.264510632130589e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.009722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>495648.7492826564</v>
+        <v>532786.8223460098</v>
       </c>
     </row>
     <row r="7">
@@ -21600,28 +21600,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>376.690590782513</v>
+        <v>416.614016703244</v>
       </c>
       <c r="AB7" t="n">
-        <v>515.4046847246317</v>
+        <v>570.0296773666213</v>
       </c>
       <c r="AC7" t="n">
-        <v>466.2151849895304</v>
+        <v>515.6268450004271</v>
       </c>
       <c r="AD7" t="n">
-        <v>376690.590782513</v>
+        <v>416614.016703244</v>
       </c>
       <c r="AE7" t="n">
-        <v>515404.6847246317</v>
+        <v>570029.6773666213</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.084607268868016e-06</v>
+        <v>5.379285731453346e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.859722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>466215.1849895304</v>
+        <v>515626.8450004271</v>
       </c>
     </row>
     <row r="8">
@@ -21706,28 +21706,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>366.4593114634429</v>
+        <v>406.3827373841738</v>
       </c>
       <c r="AB8" t="n">
-        <v>501.4057969880927</v>
+        <v>556.0307896300822</v>
       </c>
       <c r="AC8" t="n">
-        <v>453.5523314510042</v>
+        <v>502.963991461901</v>
       </c>
       <c r="AD8" t="n">
-        <v>366459.3114634429</v>
+        <v>406382.7373841738</v>
       </c>
       <c r="AE8" t="n">
-        <v>501405.7969880927</v>
+        <v>556030.7896300822</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.133206553639533e-06</v>
+        <v>5.464038640443992e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.752777777777777</v>
       </c>
       <c r="AH8" t="n">
-        <v>453552.3314510042</v>
+        <v>502963.991461901</v>
       </c>
     </row>
     <row r="9">
@@ -21812,28 +21812,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>358.5123252791471</v>
+        <v>398.4357511998781</v>
       </c>
       <c r="AB9" t="n">
-        <v>490.5323798944526</v>
+        <v>545.1573725364423</v>
       </c>
       <c r="AC9" t="n">
-        <v>443.7166580238444</v>
+        <v>493.1283180347411</v>
       </c>
       <c r="AD9" t="n">
-        <v>358512.3252791471</v>
+        <v>398435.7511998781</v>
       </c>
       <c r="AE9" t="n">
-        <v>490532.3798944526</v>
+        <v>545157.3725364422</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.167485046033235e-06</v>
+        <v>5.523817338007927e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.680555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>443716.6580238445</v>
+        <v>493128.3180347412</v>
       </c>
     </row>
     <row r="10">
@@ -21918,28 +21918,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>350.8595098818727</v>
+        <v>390.7829358026036</v>
       </c>
       <c r="AB10" t="n">
-        <v>480.0614602495141</v>
+        <v>534.6864528915037</v>
       </c>
       <c r="AC10" t="n">
-        <v>434.245068253791</v>
+        <v>483.6567282646876</v>
       </c>
       <c r="AD10" t="n">
-        <v>350859.5098818727</v>
+        <v>390782.9358026035</v>
       </c>
       <c r="AE10" t="n">
-        <v>480061.4602495141</v>
+        <v>534686.4528915037</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.198716561325276e-06</v>
+        <v>5.57828237356618e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.615277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>434245.068253791</v>
+        <v>483656.7282646876</v>
       </c>
     </row>
     <row r="11">
@@ -22024,28 +22024,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>346.0056032769606</v>
+        <v>376.0975192130092</v>
       </c>
       <c r="AB11" t="n">
-        <v>473.4201310934275</v>
+        <v>514.5932180387656</v>
       </c>
       <c r="AC11" t="n">
-        <v>428.2375782311971</v>
+        <v>465.4811635452625</v>
       </c>
       <c r="AD11" t="n">
-        <v>346005.6032769607</v>
+        <v>376097.5192130092</v>
       </c>
       <c r="AE11" t="n">
-        <v>473420.1310934275</v>
+        <v>514593.2180387656</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.218369563630999e-06</v>
+        <v>5.612555493502836e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.575</v>
       </c>
       <c r="AH11" t="n">
-        <v>428237.5782311971</v>
+        <v>465481.1635452625</v>
       </c>
     </row>
     <row r="12">
@@ -22130,28 +22130,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>340.2399997496441</v>
+        <v>370.3319156856926</v>
       </c>
       <c r="AB12" t="n">
-        <v>465.5313779868771</v>
+        <v>506.7044649322152</v>
       </c>
       <c r="AC12" t="n">
-        <v>421.1017166492014</v>
+        <v>458.3453019632669</v>
       </c>
       <c r="AD12" t="n">
-        <v>340239.9997496441</v>
+        <v>370331.9156856926</v>
       </c>
       <c r="AE12" t="n">
-        <v>465531.3779868771</v>
+        <v>506704.4649322152</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.238936659067221e-06</v>
+        <v>5.648422712041197e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.533333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>421101.7166492014</v>
+        <v>458345.3019632669</v>
       </c>
     </row>
     <row r="13">
@@ -22236,28 +22236,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>335.4871529537393</v>
+        <v>365.4084766891956</v>
       </c>
       <c r="AB13" t="n">
-        <v>459.0283233199181</v>
+        <v>499.9679984904092</v>
       </c>
       <c r="AC13" t="n">
-        <v>415.2193043925624</v>
+        <v>452.2517544239769</v>
       </c>
       <c r="AD13" t="n">
-        <v>335487.1529537393</v>
+        <v>365408.4766891956</v>
       </c>
       <c r="AE13" t="n">
-        <v>459028.3233199181</v>
+        <v>499967.9984904092</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.255695033126364e-06</v>
+        <v>5.677647853072454e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.498611111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>415219.3043925624</v>
+        <v>452251.7544239769</v>
       </c>
     </row>
     <row r="14">
@@ -22342,28 +22342,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>331.3729725859912</v>
+        <v>361.2942963214476</v>
       </c>
       <c r="AB14" t="n">
-        <v>453.3991202359372</v>
+        <v>494.3387954064284</v>
       </c>
       <c r="AC14" t="n">
-        <v>410.1273445502806</v>
+        <v>447.1597945816951</v>
       </c>
       <c r="AD14" t="n">
-        <v>331372.9725859913</v>
+        <v>361294.2963214476</v>
       </c>
       <c r="AE14" t="n">
-        <v>453399.1202359372</v>
+        <v>494338.7954064284</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.265293010996601e-06</v>
+        <v>5.694385888390357e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.480555555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>410127.3445502806</v>
+        <v>447159.7945816951</v>
       </c>
     </row>
     <row r="15">
@@ -22448,28 +22448,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>327.1304625175823</v>
+        <v>357.0517862530386</v>
       </c>
       <c r="AB15" t="n">
-        <v>447.5943307940056</v>
+        <v>488.5340059644967</v>
       </c>
       <c r="AC15" t="n">
-        <v>404.8765560656137</v>
+        <v>441.9090060970281</v>
       </c>
       <c r="AD15" t="n">
-        <v>327130.4625175823</v>
+        <v>357051.7862530386</v>
       </c>
       <c r="AE15" t="n">
-        <v>447594.3307940056</v>
+        <v>488534.0059644967</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.276414477417669e-06</v>
+        <v>5.7137807547111e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>404876.5560656137</v>
+        <v>441909.006097028</v>
       </c>
     </row>
     <row r="16">
@@ -22554,28 +22554,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>322.7061902889269</v>
+        <v>352.6275140243833</v>
       </c>
       <c r="AB16" t="n">
-        <v>441.540846345644</v>
+        <v>482.4805215161351</v>
       </c>
       <c r="AC16" t="n">
-        <v>399.400807676885</v>
+        <v>436.4332577082994</v>
       </c>
       <c r="AD16" t="n">
-        <v>322706.1902889269</v>
+        <v>352627.5140243833</v>
       </c>
       <c r="AE16" t="n">
-        <v>441540.846345644</v>
+        <v>482480.5215161351</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.286774199563322e-06</v>
+        <v>5.731847205530423e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.4375</v>
       </c>
       <c r="AH16" t="n">
-        <v>399400.807676885</v>
+        <v>436433.2577082994</v>
       </c>
     </row>
     <row r="17">
@@ -22660,28 +22660,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>317.9920334143974</v>
+        <v>347.9133571498537</v>
       </c>
       <c r="AB17" t="n">
-        <v>435.0907289359895</v>
+        <v>476.0304041064806</v>
       </c>
       <c r="AC17" t="n">
-        <v>393.5662804200112</v>
+        <v>430.5987304514255</v>
       </c>
       <c r="AD17" t="n">
-        <v>317992.0334143974</v>
+        <v>347913.3571498537</v>
       </c>
       <c r="AE17" t="n">
-        <v>435090.7289359895</v>
+        <v>476030.4041064806</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.298809759114888e-06</v>
+        <v>5.75283617045287e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.413888888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>393566.2804200112</v>
+        <v>430598.7304514255</v>
       </c>
     </row>
     <row r="18">
@@ -22766,28 +22766,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>315.6583575333622</v>
+        <v>345.5796812688186</v>
       </c>
       <c r="AB18" t="n">
-        <v>431.8976906410435</v>
+        <v>472.8373658115346</v>
       </c>
       <c r="AC18" t="n">
-        <v>390.6779812184774</v>
+        <v>427.7104312498919</v>
       </c>
       <c r="AD18" t="n">
-        <v>315658.3575333622</v>
+        <v>345579.6812688186</v>
       </c>
       <c r="AE18" t="n">
-        <v>431897.6906410435</v>
+        <v>472837.3658115346</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.30475136446313e-06</v>
+        <v>5.763197811363953e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.402777777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>390677.9812184774</v>
+        <v>427710.4312498919</v>
       </c>
     </row>
     <row r="19">
@@ -22872,28 +22872,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>315.3891023845149</v>
+        <v>345.3104261199712</v>
       </c>
       <c r="AB19" t="n">
-        <v>431.5292838676916</v>
+        <v>472.4689590381828</v>
       </c>
       <c r="AC19" t="n">
-        <v>390.3447346705122</v>
+        <v>427.3771847019266</v>
       </c>
       <c r="AD19" t="n">
-        <v>315389.1023845149</v>
+        <v>345310.4261199712</v>
       </c>
       <c r="AE19" t="n">
-        <v>431529.2838676916</v>
+        <v>472468.9590381829</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.301552038506385e-06</v>
+        <v>5.757618466257986e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.409722222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>390344.7346705122</v>
+        <v>427377.1847019267</v>
       </c>
     </row>
     <row r="20">
@@ -22978,28 +22978,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>316.3065138856736</v>
+        <v>346.2278376211299</v>
       </c>
       <c r="AB20" t="n">
-        <v>432.784526756916</v>
+        <v>473.7242019274071</v>
       </c>
       <c r="AC20" t="n">
-        <v>391.4801789401334</v>
+        <v>428.5126289715478</v>
       </c>
       <c r="AD20" t="n">
-        <v>316306.5138856736</v>
+        <v>346227.8376211299</v>
       </c>
       <c r="AE20" t="n">
-        <v>432784.526756916</v>
+        <v>473724.2019274071</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.302161433926717e-06</v>
+        <v>5.758681198659122e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.408333333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>391480.1789401334</v>
+        <v>428512.6289715478</v>
       </c>
     </row>
   </sheetData>
@@ -23275,28 +23275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1852.489901056555</v>
+        <v>1945.441388116628</v>
       </c>
       <c r="AB2" t="n">
-        <v>2534.658408712075</v>
+        <v>2661.838734037861</v>
       </c>
       <c r="AC2" t="n">
-        <v>2292.754167600014</v>
+        <v>2407.796581175414</v>
       </c>
       <c r="AD2" t="n">
-        <v>1852489.901056556</v>
+        <v>1945441.388116628</v>
       </c>
       <c r="AE2" t="n">
-        <v>2534658.408712076</v>
+        <v>2661838.734037861</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.217432189380576e-06</v>
+        <v>2.069554034950076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.77638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2292754.167600014</v>
+        <v>2407796.581175414</v>
       </c>
     </row>
     <row r="3">
@@ -23381,28 +23381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>703.8499763831218</v>
+        <v>755.3665108017763</v>
       </c>
       <c r="AB3" t="n">
-        <v>963.0385893568291</v>
+        <v>1033.525784497528</v>
       </c>
       <c r="AC3" t="n">
-        <v>871.1275380217619</v>
+        <v>934.8875341876325</v>
       </c>
       <c r="AD3" t="n">
-        <v>703849.9763831218</v>
+        <v>755366.5108017763</v>
       </c>
       <c r="AE3" t="n">
-        <v>963038.5893568291</v>
+        <v>1033525.784497528</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.171055543424909e-06</v>
+        <v>3.690650534122831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.406944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>871127.5380217619</v>
+        <v>934887.5341876325</v>
       </c>
     </row>
     <row r="4">
@@ -23487,28 +23487,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>559.4563384322969</v>
+        <v>600.7207883816736</v>
       </c>
       <c r="AB4" t="n">
-        <v>765.4728437147902</v>
+        <v>821.9326845945778</v>
       </c>
       <c r="AC4" t="n">
-        <v>692.4171898585334</v>
+        <v>743.4885827666386</v>
       </c>
       <c r="AD4" t="n">
-        <v>559456.3384322969</v>
+        <v>600720.7883816736</v>
       </c>
       <c r="AE4" t="n">
-        <v>765472.8437147902</v>
+        <v>821932.6845945779</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.517947986322454e-06</v>
+        <v>4.280344696273723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.111111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>692417.1898585334</v>
+        <v>743488.5827666386</v>
       </c>
     </row>
     <row r="5">
@@ -23593,28 +23593,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>497.525894169272</v>
+        <v>538.8755954646696</v>
       </c>
       <c r="AB5" t="n">
-        <v>680.736877695746</v>
+        <v>737.3133632281831</v>
       </c>
       <c r="AC5" t="n">
-        <v>615.7683055086719</v>
+        <v>666.9452106674893</v>
       </c>
       <c r="AD5" t="n">
-        <v>497525.894169272</v>
+        <v>538875.5954646695</v>
       </c>
       <c r="AE5" t="n">
-        <v>680736.877695746</v>
+        <v>737313.3632281831</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.696173353338913e-06</v>
+        <v>4.583316008069772e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.574999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>615768.3055086719</v>
+        <v>666945.2106674893</v>
       </c>
     </row>
     <row r="6">
@@ -23699,28 +23699,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>469.0258557214947</v>
+        <v>510.2049648163</v>
       </c>
       <c r="AB6" t="n">
-        <v>641.741867758539</v>
+        <v>698.0849415161291</v>
       </c>
       <c r="AC6" t="n">
-        <v>580.4949245900316</v>
+        <v>631.4606944661979</v>
       </c>
       <c r="AD6" t="n">
-        <v>469025.8557214947</v>
+        <v>510204.9648163</v>
       </c>
       <c r="AE6" t="n">
-        <v>641741.867758539</v>
+        <v>698084.9415161291</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.808667087470588e-06</v>
+        <v>4.774547900416288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.272222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>580494.9245900316</v>
+        <v>631460.6944661979</v>
       </c>
     </row>
     <row r="7">
@@ -23805,28 +23805,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>450.6525154604668</v>
+        <v>481.6648809405659</v>
       </c>
       <c r="AB7" t="n">
-        <v>616.6026530388358</v>
+        <v>659.0351396577119</v>
       </c>
       <c r="AC7" t="n">
-        <v>557.7549612400674</v>
+        <v>596.137750890407</v>
       </c>
       <c r="AD7" t="n">
-        <v>450652.5154604668</v>
+        <v>481664.8809405659</v>
       </c>
       <c r="AE7" t="n">
-        <v>616602.6530388359</v>
+        <v>659035.1396577118</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.885868669717816e-06</v>
+        <v>4.90578547359527e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.077777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>557754.9612400674</v>
+        <v>596137.750890407</v>
       </c>
     </row>
     <row r="8">
@@ -23911,28 +23911,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>426.9526635094404</v>
+        <v>468.2170239502663</v>
       </c>
       <c r="AB8" t="n">
-        <v>584.1754700357658</v>
+        <v>640.6351884460051</v>
       </c>
       <c r="AC8" t="n">
-        <v>528.4225830709731</v>
+        <v>579.4938651978516</v>
       </c>
       <c r="AD8" t="n">
-        <v>426952.6635094404</v>
+        <v>468217.0239502663</v>
       </c>
       <c r="AE8" t="n">
-        <v>584175.4700357658</v>
+        <v>640635.1884460051</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.941894960834376e-06</v>
+        <v>5.001026455273731e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.943055555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>528422.5830709732</v>
+        <v>579493.8651978517</v>
       </c>
     </row>
     <row r="9">
@@ -24017,28 +24017,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>416.9439543363105</v>
+        <v>458.2083147771363</v>
       </c>
       <c r="AB9" t="n">
-        <v>570.4811125920038</v>
+        <v>626.940831002243</v>
       </c>
       <c r="AC9" t="n">
-        <v>516.0351958814924</v>
+        <v>567.106478008371</v>
       </c>
       <c r="AD9" t="n">
-        <v>416943.9543363105</v>
+        <v>458208.3147771363</v>
       </c>
       <c r="AE9" t="n">
-        <v>570481.1125920038</v>
+        <v>626940.8310022431</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.984686694994269e-06</v>
+        <v>5.073769567264367e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.843055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>516035.1958814925</v>
+        <v>567106.4780083711</v>
       </c>
     </row>
     <row r="10">
@@ -24123,28 +24123,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>409.901264314969</v>
+        <v>451.1656247557949</v>
       </c>
       <c r="AB10" t="n">
-        <v>560.844993403249</v>
+        <v>617.3047118134882</v>
       </c>
       <c r="AC10" t="n">
-        <v>507.3187343837342</v>
+        <v>558.3900165106127</v>
       </c>
       <c r="AD10" t="n">
-        <v>409901.264314969</v>
+        <v>451165.6247557949</v>
       </c>
       <c r="AE10" t="n">
-        <v>560844.993403249</v>
+        <v>617304.7118134882</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.015861429158864e-06</v>
+        <v>5.126764549195688e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.772222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>507318.7343837342</v>
+        <v>558390.0165106127</v>
       </c>
     </row>
     <row r="11">
@@ -24229,28 +24229,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>403.11584715871</v>
+        <v>444.3802075995359</v>
       </c>
       <c r="AB11" t="n">
-        <v>551.5608862985778</v>
+        <v>608.0206047088169</v>
       </c>
       <c r="AC11" t="n">
-        <v>498.9206894308065</v>
+        <v>549.9919715576849</v>
       </c>
       <c r="AD11" t="n">
-        <v>403115.8471587101</v>
+        <v>444380.2075995359</v>
       </c>
       <c r="AE11" t="n">
-        <v>551560.8862985778</v>
+        <v>608020.6047088169</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.042183492439347e-06</v>
+        <v>5.171510312241475e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.713888888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>498920.6894308066</v>
+        <v>549991.9715576849</v>
       </c>
     </row>
     <row r="12">
@@ -24335,28 +24335,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>397.9452001193686</v>
+        <v>439.2095605601944</v>
       </c>
       <c r="AB12" t="n">
-        <v>544.4861789065027</v>
+        <v>600.9458973167419</v>
       </c>
       <c r="AC12" t="n">
-        <v>492.521182182817</v>
+        <v>543.5924643096956</v>
       </c>
       <c r="AD12" t="n">
-        <v>397945.2001193686</v>
+        <v>439209.5605601944</v>
       </c>
       <c r="AE12" t="n">
-        <v>544486.1789065027</v>
+        <v>600945.897316742</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.062623530405756e-06</v>
+        <v>5.206257022092672e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.668055555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>492521.182182817</v>
+        <v>543592.4643096956</v>
       </c>
     </row>
     <row r="13">
@@ -24441,28 +24441,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>391.9855540138493</v>
+        <v>433.249914454675</v>
       </c>
       <c r="AB13" t="n">
-        <v>536.331928183901</v>
+        <v>592.7916465941402</v>
       </c>
       <c r="AC13" t="n">
-        <v>485.1451617046177</v>
+        <v>536.2164438314961</v>
       </c>
       <c r="AD13" t="n">
-        <v>391985.5540138493</v>
+        <v>433249.914454675</v>
       </c>
       <c r="AE13" t="n">
-        <v>536331.928183901</v>
+        <v>592791.6465941402</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.085269327864943e-06</v>
+        <v>5.24475337689184e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.619444444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>485145.1617046177</v>
+        <v>536216.4438314962</v>
       </c>
     </row>
     <row r="14">
@@ -24547,28 +24547,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>387.7655399303848</v>
+        <v>418.8631567565046</v>
       </c>
       <c r="AB14" t="n">
-        <v>530.5579187410233</v>
+        <v>573.1070500125486</v>
       </c>
       <c r="AC14" t="n">
-        <v>479.9222156190949</v>
+        <v>518.4105175201468</v>
       </c>
       <c r="AD14" t="n">
-        <v>387765.5399303848</v>
+        <v>418863.1567565046</v>
       </c>
       <c r="AE14" t="n">
-        <v>530557.9187410233</v>
+        <v>573107.0500125486</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.100562593681536e-06</v>
+        <v>5.270750915197772e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.5875</v>
       </c>
       <c r="AH14" t="n">
-        <v>479922.2156190949</v>
+        <v>518410.5175201468</v>
       </c>
     </row>
     <row r="15">
@@ -24653,28 +24653,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>384.1606477555271</v>
+        <v>415.2582645816468</v>
       </c>
       <c r="AB15" t="n">
-        <v>525.6255462307644</v>
+        <v>568.1746775022897</v>
       </c>
       <c r="AC15" t="n">
-        <v>475.4605818185869</v>
+        <v>513.9488837196387</v>
       </c>
       <c r="AD15" t="n">
-        <v>384160.6477555271</v>
+        <v>415258.2645816468</v>
       </c>
       <c r="AE15" t="n">
-        <v>525625.5462307644</v>
+        <v>568174.6775022896</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.112179593676834e-06</v>
+        <v>5.290499045257085e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH15" t="n">
-        <v>475460.5818185869</v>
+        <v>513948.8837196387</v>
       </c>
     </row>
     <row r="16">
@@ -24759,28 +24759,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>380.9145123000704</v>
+        <v>412.0121291261901</v>
       </c>
       <c r="AB16" t="n">
-        <v>521.1840404912195</v>
+        <v>563.7331717627449</v>
       </c>
       <c r="AC16" t="n">
-        <v>471.4429671531317</v>
+        <v>509.9312690541835</v>
       </c>
       <c r="AD16" t="n">
-        <v>380914.5123000704</v>
+        <v>412012.1291261901</v>
       </c>
       <c r="AE16" t="n">
-        <v>521184.0404912195</v>
+        <v>563733.1717627449</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.122326087343612e-06</v>
+        <v>5.307747412017751e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.541666666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>471442.9671531317</v>
+        <v>509931.2690541835</v>
       </c>
     </row>
     <row r="17">
@@ -24865,28 +24865,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>376.8362213486591</v>
+        <v>407.9338381747789</v>
       </c>
       <c r="AB17" t="n">
-        <v>515.60394289</v>
+        <v>558.1530741615253</v>
       </c>
       <c r="AC17" t="n">
-        <v>466.3954262352565</v>
+        <v>504.8837281363083</v>
       </c>
       <c r="AD17" t="n">
-        <v>376836.2213486591</v>
+        <v>407933.8381747789</v>
       </c>
       <c r="AE17" t="n">
-        <v>515603.94289</v>
+        <v>558153.0741615254</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.133354884807502e-06</v>
+        <v>5.326495636757605e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.518055555555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>466395.4262352565</v>
+        <v>504883.7281363083</v>
       </c>
     </row>
     <row r="18">
@@ -24971,28 +24971,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>373.0062698503819</v>
+        <v>403.9332944759094</v>
       </c>
       <c r="AB18" t="n">
-        <v>510.3636342845219</v>
+        <v>552.6793537812002</v>
       </c>
       <c r="AC18" t="n">
-        <v>461.6552453282659</v>
+        <v>499.9324119466665</v>
       </c>
       <c r="AD18" t="n">
-        <v>373006.2698503819</v>
+        <v>403933.2944759094</v>
       </c>
       <c r="AE18" t="n">
-        <v>510363.6342845219</v>
+        <v>552679.3537812002</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.145118935435651e-06</v>
+        <v>5.346493743146783e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.494444444444444</v>
       </c>
       <c r="AH18" t="n">
-        <v>461655.2453282659</v>
+        <v>499932.4119466665</v>
       </c>
     </row>
     <row r="19">
@@ -25077,28 +25077,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>371.1399671717732</v>
+        <v>402.0669917973006</v>
       </c>
       <c r="AB19" t="n">
-        <v>507.8100766241861</v>
+        <v>550.1257961208646</v>
       </c>
       <c r="AC19" t="n">
-        <v>459.3453956270919</v>
+        <v>497.6225622454926</v>
       </c>
       <c r="AD19" t="n">
-        <v>371139.9671717731</v>
+        <v>402066.9917973006</v>
       </c>
       <c r="AE19" t="n">
-        <v>507810.0766241861</v>
+        <v>550125.7961208646</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.150118656952614e-06</v>
+        <v>5.354992938362184e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.483333333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>459345.3956270919</v>
+        <v>497622.5622454926</v>
       </c>
     </row>
     <row r="20">
@@ -25183,28 +25183,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>368.5662260218057</v>
+        <v>399.4932506473332</v>
       </c>
       <c r="AB20" t="n">
-        <v>504.2885704373548</v>
+        <v>546.6042899340333</v>
       </c>
       <c r="AC20" t="n">
-        <v>456.1599770482668</v>
+        <v>494.4371436666675</v>
       </c>
       <c r="AD20" t="n">
-        <v>368566.2260218057</v>
+        <v>399493.2506473332</v>
       </c>
       <c r="AE20" t="n">
-        <v>504288.5704373548</v>
+        <v>546604.2899340333</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.155853631633837e-06</v>
+        <v>5.364742015226909e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.472222222222222</v>
       </c>
       <c r="AH20" t="n">
-        <v>456159.9770482668</v>
+        <v>494437.1436666675</v>
       </c>
     </row>
     <row r="21">
@@ -25289,28 +25289,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>364.9363202721726</v>
+        <v>395.8633448977001</v>
       </c>
       <c r="AB21" t="n">
-        <v>499.3219732505672</v>
+        <v>541.6376927472455</v>
       </c>
       <c r="AC21" t="n">
-        <v>451.6673849263232</v>
+        <v>489.9445515447239</v>
       </c>
       <c r="AD21" t="n">
-        <v>364936.3202721726</v>
+        <v>395863.3448977001</v>
       </c>
       <c r="AE21" t="n">
-        <v>499321.9732505672</v>
+        <v>541637.6927472455</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.161147454416505e-06</v>
+        <v>5.37374116310204e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.461111111111112</v>
       </c>
       <c r="AH21" t="n">
-        <v>451667.3849263232</v>
+        <v>489944.5515447239</v>
       </c>
     </row>
     <row r="22">
@@ -25395,28 +25395,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>360.6329087905992</v>
+        <v>391.5599334161265</v>
       </c>
       <c r="AB22" t="n">
-        <v>493.433855808363</v>
+        <v>535.7495753050414</v>
       </c>
       <c r="AC22" t="n">
-        <v>446.3412211487782</v>
+        <v>484.6183877671791</v>
       </c>
       <c r="AD22" t="n">
-        <v>360632.9087905991</v>
+        <v>391559.9334161265</v>
       </c>
       <c r="AE22" t="n">
-        <v>493433.855808363</v>
+        <v>535749.5753050414</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.173205606310357e-06</v>
+        <v>5.394239222150948e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.436111111111112</v>
       </c>
       <c r="AH22" t="n">
-        <v>446341.2211487782</v>
+        <v>484618.3877671791</v>
       </c>
     </row>
     <row r="23">
@@ -25501,28 +25501,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>358.978557421247</v>
+        <v>389.9055820467745</v>
       </c>
       <c r="AB23" t="n">
-        <v>491.170299279984</v>
+        <v>533.4860187766624</v>
       </c>
       <c r="AC23" t="n">
-        <v>444.2936952785462</v>
+        <v>482.570861896947</v>
       </c>
       <c r="AD23" t="n">
-        <v>358978.557421247</v>
+        <v>389905.5820467745</v>
       </c>
       <c r="AE23" t="n">
-        <v>491170.299279984</v>
+        <v>533486.0187766624</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.173205606310357e-06</v>
+        <v>5.394239222150948e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.436111111111112</v>
       </c>
       <c r="AH23" t="n">
-        <v>444293.6952785462</v>
+        <v>482570.861896947</v>
       </c>
     </row>
     <row r="24">
@@ -25607,28 +25607,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>354.5154823507481</v>
+        <v>385.4425069762756</v>
       </c>
       <c r="AB24" t="n">
-        <v>485.0637230715516</v>
+        <v>527.3794425682299</v>
       </c>
       <c r="AC24" t="n">
-        <v>438.769922132813</v>
+        <v>477.0470887512137</v>
       </c>
       <c r="AD24" t="n">
-        <v>354515.4823507481</v>
+        <v>385442.5069762756</v>
       </c>
       <c r="AE24" t="n">
-        <v>485063.7230715516</v>
+        <v>527379.44256823</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.18055813795295e-06</v>
+        <v>5.406738038644183e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.422222222222222</v>
       </c>
       <c r="AH24" t="n">
-        <v>438769.922132813</v>
+        <v>477047.0887512137</v>
       </c>
     </row>
     <row r="25">
@@ -25713,28 +25713,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>354.1015717428727</v>
+        <v>385.0285963684002</v>
       </c>
       <c r="AB25" t="n">
-        <v>484.4973923174093</v>
+        <v>526.8131118140877</v>
       </c>
       <c r="AC25" t="n">
-        <v>438.2576411909958</v>
+        <v>476.5348078093966</v>
       </c>
       <c r="AD25" t="n">
-        <v>354101.5717428728</v>
+        <v>385028.5963684002</v>
       </c>
       <c r="AE25" t="n">
-        <v>484497.3923174093</v>
+        <v>526813.1118140877</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.183205049344284e-06</v>
+        <v>5.411237612581748e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6.415277777777778</v>
       </c>
       <c r="AH25" t="n">
-        <v>438257.6411909958</v>
+        <v>476534.8078093966</v>
       </c>
     </row>
     <row r="26">
@@ -25819,28 +25819,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>351.6559699449423</v>
+        <v>382.5829945704699</v>
       </c>
       <c r="AB26" t="n">
-        <v>481.1512120451443</v>
+        <v>523.4669315418226</v>
       </c>
       <c r="AC26" t="n">
-        <v>435.2308156675224</v>
+        <v>473.5079822859231</v>
       </c>
       <c r="AD26" t="n">
-        <v>351655.9699449423</v>
+        <v>382582.9945704698</v>
       </c>
       <c r="AE26" t="n">
-        <v>481151.2120451443</v>
+        <v>523466.9315418227</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.18923412529121e-06</v>
+        <v>5.421486642106203e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>6.404166666666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>435230.8156675224</v>
+        <v>473507.9822859231</v>
       </c>
     </row>
     <row r="27">
@@ -25925,28 +25925,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>352.1698546344081</v>
+        <v>383.0968792599355</v>
       </c>
       <c r="AB27" t="n">
-        <v>481.8543317482637</v>
+        <v>524.1700512449421</v>
       </c>
       <c r="AC27" t="n">
-        <v>435.8668306130108</v>
+        <v>474.1439972314114</v>
       </c>
       <c r="AD27" t="n">
-        <v>352169.8546344081</v>
+        <v>383096.8792599355</v>
       </c>
       <c r="AE27" t="n">
-        <v>481854.3317482637</v>
+        <v>524170.0512449421</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.18923412529121e-06</v>
+        <v>5.421486642106203e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>6.404166666666667</v>
       </c>
       <c r="AH27" t="n">
-        <v>435866.8306130108</v>
+        <v>474143.9972314114</v>
       </c>
     </row>
     <row r="28">
@@ -26031,28 +26031,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>353.5265098255396</v>
+        <v>384.453534451067</v>
       </c>
       <c r="AB28" t="n">
-        <v>483.7105672321729</v>
+        <v>526.0262867288512</v>
       </c>
       <c r="AC28" t="n">
-        <v>437.5459095875784</v>
+        <v>475.8230762059792</v>
       </c>
       <c r="AD28" t="n">
-        <v>353526.5098255396</v>
+        <v>384453.534451067</v>
       </c>
       <c r="AE28" t="n">
-        <v>483710.5672321729</v>
+        <v>526026.2867288513</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.188498872126951e-06</v>
+        <v>5.420236760456878e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>6.405555555555555</v>
       </c>
       <c r="AH28" t="n">
-        <v>437545.9095875784</v>
+        <v>475823.0762059792</v>
       </c>
     </row>
   </sheetData>
@@ -26328,28 +26328,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>733.2294799067187</v>
+        <v>790.7930172190711</v>
       </c>
       <c r="AB2" t="n">
-        <v>1003.236922210034</v>
+        <v>1081.99789348483</v>
       </c>
       <c r="AC2" t="n">
-        <v>907.4893984061708</v>
+        <v>978.7335331242178</v>
       </c>
       <c r="AD2" t="n">
-        <v>733229.4799067187</v>
+        <v>790793.017219071</v>
       </c>
       <c r="AE2" t="n">
-        <v>1003236.922210034</v>
+        <v>1081997.893484829</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.014191528294694e-06</v>
+        <v>3.632063963682708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.96944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>907489.3984061709</v>
+        <v>978733.5331242179</v>
       </c>
     </row>
     <row r="3">
@@ -26434,28 +26434,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>426.4726798008897</v>
+        <v>474.3427298975164</v>
       </c>
       <c r="AB3" t="n">
-        <v>583.5187351503398</v>
+        <v>649.0166495701059</v>
       </c>
       <c r="AC3" t="n">
-        <v>527.8285260412791</v>
+        <v>587.0754114357229</v>
       </c>
       <c r="AD3" t="n">
-        <v>426472.6798008897</v>
+        <v>474342.7298975164</v>
       </c>
       <c r="AE3" t="n">
-        <v>583518.7351503398</v>
+        <v>649016.6495701058</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.77939658722349e-06</v>
+        <v>5.011909763012447e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.949999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>527828.5260412791</v>
+        <v>587075.411435723</v>
       </c>
     </row>
     <row r="4">
@@ -26540,28 +26540,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>372.1800542860725</v>
+        <v>410.4420475300963</v>
       </c>
       <c r="AB4" t="n">
-        <v>509.2331696993757</v>
+        <v>561.5849168558577</v>
       </c>
       <c r="AC4" t="n">
-        <v>460.6326706965089</v>
+        <v>507.9880405805151</v>
       </c>
       <c r="AD4" t="n">
-        <v>372180.0542860725</v>
+        <v>410442.0475300963</v>
       </c>
       <c r="AE4" t="n">
-        <v>509233.1696993756</v>
+        <v>561584.9168558577</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.041888967105509e-06</v>
+        <v>5.485245640121401e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.263888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>460632.6706965089</v>
+        <v>507988.0405805151</v>
       </c>
     </row>
     <row r="5">
@@ -26646,28 +26646,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>336.707191832812</v>
+        <v>375.0544364228564</v>
       </c>
       <c r="AB5" t="n">
-        <v>460.6976343385819</v>
+        <v>513.1660261477134</v>
       </c>
       <c r="AC5" t="n">
-        <v>416.7292987104978</v>
+        <v>464.1901808452162</v>
       </c>
       <c r="AD5" t="n">
-        <v>336707.191832812</v>
+        <v>375054.4364228564</v>
       </c>
       <c r="AE5" t="n">
-        <v>460697.6343385819</v>
+        <v>513166.0261477134</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.182998507078449e-06</v>
+        <v>5.739699532846032e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.941666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>416729.2987104978</v>
+        <v>464190.1808452161</v>
       </c>
     </row>
     <row r="6">
@@ -26752,28 +26752,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>321.8124115191089</v>
+        <v>360.1596561091532</v>
       </c>
       <c r="AB6" t="n">
-        <v>440.3179388020425</v>
+        <v>492.786330611174</v>
       </c>
       <c r="AC6" t="n">
-        <v>398.2946127128833</v>
+        <v>445.7554948476017</v>
       </c>
       <c r="AD6" t="n">
-        <v>321812.4115191089</v>
+        <v>360159.6561091532</v>
       </c>
       <c r="AE6" t="n">
-        <v>440317.9388020425</v>
+        <v>492786.330611174</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.264291601696456e-06</v>
+        <v>5.886290219635532e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.768055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>398294.6127128833</v>
+        <v>445755.4948476017</v>
       </c>
     </row>
     <row r="7">
@@ -26858,28 +26858,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>310.8925661445701</v>
+        <v>349.2398107346144</v>
       </c>
       <c r="AB7" t="n">
-        <v>425.3769246110209</v>
+        <v>477.8453164201523</v>
       </c>
       <c r="AC7" t="n">
-        <v>384.7795479464075</v>
+        <v>432.2404300811259</v>
       </c>
       <c r="AD7" t="n">
-        <v>310892.5661445701</v>
+        <v>349239.8107346144</v>
       </c>
       <c r="AE7" t="n">
-        <v>425376.9246110208</v>
+        <v>477845.3164201523</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.319017285744586e-06</v>
+        <v>5.984973578257036e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.656944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>384779.5479464075</v>
+        <v>432240.4300811259</v>
       </c>
     </row>
     <row r="8">
@@ -26964,28 +26964,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>302.8031087136476</v>
+        <v>331.7128886516811</v>
       </c>
       <c r="AB8" t="n">
-        <v>414.3085720723582</v>
+        <v>453.8642083930527</v>
       </c>
       <c r="AC8" t="n">
-        <v>374.7675434395045</v>
+        <v>410.5480453464363</v>
       </c>
       <c r="AD8" t="n">
-        <v>302803.1087136476</v>
+        <v>331712.8886516811</v>
       </c>
       <c r="AE8" t="n">
-        <v>414308.5720723582</v>
+        <v>453864.2083930527</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.355129873764718e-06</v>
+        <v>6.050093120138086e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.586111111111112</v>
       </c>
       <c r="AH8" t="n">
-        <v>374767.5434395046</v>
+        <v>410548.0453464363</v>
       </c>
     </row>
     <row r="9">
@@ -27070,28 +27070,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>295.9730932146668</v>
+        <v>324.8828731527004</v>
       </c>
       <c r="AB9" t="n">
-        <v>404.9634435476348</v>
+        <v>444.5190798683294</v>
       </c>
       <c r="AC9" t="n">
-        <v>366.3143008652106</v>
+        <v>402.0948027721423</v>
       </c>
       <c r="AD9" t="n">
-        <v>295973.0932146668</v>
+        <v>324882.8731527004</v>
       </c>
       <c r="AE9" t="n">
-        <v>404963.4435476348</v>
+        <v>444519.0798683293</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.384242664987997e-06</v>
+        <v>6.102590371962897e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.529166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>366314.3008652105</v>
+        <v>402094.8027721423</v>
       </c>
     </row>
     <row r="10">
@@ -27176,28 +27176,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>287.912050095841</v>
+        <v>316.6512378332824</v>
       </c>
       <c r="AB10" t="n">
-        <v>393.933968724334</v>
+        <v>433.2561932701816</v>
       </c>
       <c r="AC10" t="n">
-        <v>356.3374636390805</v>
+        <v>391.9068302633611</v>
       </c>
       <c r="AD10" t="n">
-        <v>287912.050095841</v>
+        <v>316651.2378332824</v>
       </c>
       <c r="AE10" t="n">
-        <v>393933.968724334</v>
+        <v>433256.1932701816</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.410810075557874e-06</v>
+        <v>6.150497700130895e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.477777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>356337.4636390805</v>
+        <v>391906.8302633611</v>
       </c>
     </row>
     <row r="11">
@@ -27282,28 +27282,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>282.2591460884762</v>
+        <v>310.9983338259176</v>
       </c>
       <c r="AB11" t="n">
-        <v>386.1994160729337</v>
+        <v>425.5216406187812</v>
       </c>
       <c r="AC11" t="n">
-        <v>349.3410858372169</v>
+        <v>384.9104524614975</v>
       </c>
       <c r="AD11" t="n">
-        <v>282259.1460884762</v>
+        <v>310998.3338259176</v>
       </c>
       <c r="AE11" t="n">
-        <v>386199.4160729337</v>
+        <v>425521.6406187812</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.431650379657598e-06</v>
+        <v>6.188077700071059e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.438888888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>349341.0858372169</v>
+        <v>384910.4524614975</v>
       </c>
     </row>
     <row r="12">
@@ -27388,28 +27388,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>278.5038363026106</v>
+        <v>307.243024040052</v>
       </c>
       <c r="AB12" t="n">
-        <v>381.0612355513371</v>
+        <v>420.3834600971847</v>
       </c>
       <c r="AC12" t="n">
-        <v>344.6932860531199</v>
+        <v>380.2626526774005</v>
       </c>
       <c r="AD12" t="n">
-        <v>278503.8363026106</v>
+        <v>307243.024040052</v>
       </c>
       <c r="AE12" t="n">
-        <v>381061.2355513371</v>
+        <v>420383.4600971847</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.44071829823534e-06</v>
+        <v>6.204429303098459e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.422222222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>344693.2860531199</v>
+        <v>380262.6526774005</v>
       </c>
     </row>
     <row r="13">
@@ -27494,28 +27494,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>279.4281213708292</v>
+        <v>308.1673091082706</v>
       </c>
       <c r="AB13" t="n">
-        <v>382.3258831582531</v>
+        <v>421.6481077041008</v>
       </c>
       <c r="AC13" t="n">
-        <v>345.837237467376</v>
+        <v>381.4066040916565</v>
       </c>
       <c r="AD13" t="n">
-        <v>279428.1213708292</v>
+        <v>308167.3091082706</v>
       </c>
       <c r="AE13" t="n">
-        <v>382325.8831582532</v>
+        <v>421648.1077041008</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.440877384526178e-06</v>
+        <v>6.204716173327011e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.420833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>345837.237467376</v>
+        <v>381406.6040916565</v>
       </c>
     </row>
   </sheetData>
@@ -27791,28 +27791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.9690430035024</v>
+        <v>561.2276455008837</v>
       </c>
       <c r="AB2" t="n">
-        <v>704.6033634681555</v>
+        <v>767.8964241905833</v>
       </c>
       <c r="AC2" t="n">
-        <v>637.3570073757858</v>
+        <v>694.6094672152337</v>
       </c>
       <c r="AD2" t="n">
-        <v>514969.0430035024</v>
+        <v>561227.6455008837</v>
       </c>
       <c r="AE2" t="n">
-        <v>704603.3634681555</v>
+        <v>767896.4241905833</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.417950190902031e-06</v>
+        <v>4.511122176004088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.518055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>637357.0073757857</v>
+        <v>694609.4672152337</v>
       </c>
     </row>
     <row r="3">
@@ -27897,28 +27897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>342.1211321313673</v>
+        <v>378.95742192868</v>
       </c>
       <c r="AB3" t="n">
-        <v>468.1052263012543</v>
+        <v>518.5062631043495</v>
       </c>
       <c r="AC3" t="n">
-        <v>423.4299204928733</v>
+        <v>469.0207530817805</v>
       </c>
       <c r="AD3" t="n">
-        <v>342121.1321313673</v>
+        <v>378957.42192868</v>
       </c>
       <c r="AE3" t="n">
-        <v>468105.2263012544</v>
+        <v>518506.2631043495</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.079650904511229e-06</v>
+        <v>5.745644199771092e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.473611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>423429.9204928733</v>
+        <v>469020.7530817805</v>
       </c>
     </row>
     <row r="4">
@@ -28003,28 +28003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>296.4707605850113</v>
+        <v>333.3923017283447</v>
       </c>
       <c r="AB4" t="n">
-        <v>405.6443739992752</v>
+        <v>456.1620554550197</v>
       </c>
       <c r="AC4" t="n">
-        <v>366.9302442702383</v>
+        <v>412.6265891098577</v>
       </c>
       <c r="AD4" t="n">
-        <v>296470.7605850113</v>
+        <v>333392.3017283447</v>
       </c>
       <c r="AE4" t="n">
-        <v>405644.3739992752</v>
+        <v>456162.0554550197</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.305354979626613e-06</v>
+        <v>6.166735859267874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.963888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>366930.2442702383</v>
+        <v>412626.5891098577</v>
       </c>
     </row>
     <row r="5">
@@ -28109,28 +28109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>277.5409812841368</v>
+        <v>314.4625224274701</v>
       </c>
       <c r="AB5" t="n">
-        <v>379.7438148368959</v>
+        <v>430.2614962926404</v>
       </c>
       <c r="AC5" t="n">
-        <v>343.5015981226533</v>
+        <v>389.1979429622728</v>
       </c>
       <c r="AD5" t="n">
-        <v>277540.9812841368</v>
+        <v>314462.5224274701</v>
       </c>
       <c r="AE5" t="n">
-        <v>379743.8148368959</v>
+        <v>430261.4962926404</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.422847042223388e-06</v>
+        <v>6.385938492588887e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.723611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>343501.5981226533</v>
+        <v>389197.9429622728</v>
       </c>
     </row>
     <row r="6">
@@ -28215,28 +28215,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>264.7508061068884</v>
+        <v>292.5913084598888</v>
       </c>
       <c r="AB6" t="n">
-        <v>362.2437328966795</v>
+        <v>400.3363364523339</v>
       </c>
       <c r="AC6" t="n">
-        <v>327.671699441292</v>
+        <v>362.1287983768996</v>
       </c>
       <c r="AD6" t="n">
-        <v>264750.8061068884</v>
+        <v>292591.3084598888</v>
       </c>
       <c r="AE6" t="n">
-        <v>362243.7328966795</v>
+        <v>400336.3364523339</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.493773139249367e-06</v>
+        <v>6.518263918627524e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.5875</v>
       </c>
       <c r="AH6" t="n">
-        <v>327671.699441292</v>
+        <v>362128.7983768996</v>
       </c>
     </row>
     <row r="7">
@@ -28321,28 +28321,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>255.5381887445162</v>
+        <v>283.3786910975198</v>
       </c>
       <c r="AB7" t="n">
-        <v>349.6386233893232</v>
+        <v>387.7312269451471</v>
       </c>
       <c r="AC7" t="n">
-        <v>316.2696038940405</v>
+        <v>350.7267028296964</v>
       </c>
       <c r="AD7" t="n">
-        <v>255538.1887445162</v>
+        <v>283378.6910975198</v>
       </c>
       <c r="AE7" t="n">
-        <v>349638.6233893232</v>
+        <v>387731.2269451471</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.536527655680916e-06</v>
+        <v>6.598030180118104e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.508333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>316269.6038940405</v>
+        <v>350726.7028296964</v>
       </c>
     </row>
     <row r="8">
@@ -28427,28 +28427,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>249.531607891286</v>
+        <v>277.2015180436973</v>
       </c>
       <c r="AB8" t="n">
-        <v>341.4201544742926</v>
+        <v>379.2793462552654</v>
       </c>
       <c r="AC8" t="n">
-        <v>308.8354941175643</v>
+        <v>343.0814577705679</v>
       </c>
       <c r="AD8" t="n">
-        <v>249531.607891286</v>
+        <v>277201.5180436973</v>
       </c>
       <c r="AE8" t="n">
-        <v>341420.1544742926</v>
+        <v>379279.3462552654</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.560556356776166e-06</v>
+        <v>6.642860055762035e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.463888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>308835.4941175643</v>
+        <v>343081.4577705679</v>
       </c>
     </row>
     <row r="9">
@@ -28533,28 +28533,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>250.5946809963633</v>
+        <v>278.2645911487747</v>
       </c>
       <c r="AB9" t="n">
-        <v>342.8746979961342</v>
+        <v>380.7338897771077</v>
       </c>
       <c r="AC9" t="n">
-        <v>310.1512180471464</v>
+        <v>344.3971817001502</v>
       </c>
       <c r="AD9" t="n">
-        <v>250594.6809963633</v>
+        <v>278264.5911487747</v>
       </c>
       <c r="AE9" t="n">
-        <v>342874.6979961342</v>
+        <v>380733.8897771077</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.563207799655642e-06</v>
+        <v>6.647806800660676e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.459722222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>310151.2180471463</v>
+        <v>344397.1817001501</v>
       </c>
     </row>
   </sheetData>
@@ -53923,28 +53923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.1249271778438</v>
+        <v>434.8736995557357</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.7861364618157</v>
+        <v>595.0133810057542</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.842336771447</v>
+        <v>538.2261390290895</v>
       </c>
       <c r="AD2" t="n">
-        <v>390124.9271778438</v>
+        <v>434873.6995557357</v>
       </c>
       <c r="AE2" t="n">
-        <v>533786.1364618157</v>
+        <v>595013.3810057542</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.753081067350305e-06</v>
+        <v>5.294276986693061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.648611111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>482842.336771447</v>
+        <v>538226.1390290895</v>
       </c>
     </row>
     <row r="3">
@@ -54029,28 +54029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>283.7489203433585</v>
+        <v>310.6494777913876</v>
       </c>
       <c r="AB3" t="n">
-        <v>388.2377909326652</v>
+        <v>425.0443204018953</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.1849210612127</v>
+        <v>384.4786870161881</v>
       </c>
       <c r="AD3" t="n">
-        <v>283748.9203433585</v>
+        <v>310649.4777913876</v>
       </c>
       <c r="AE3" t="n">
-        <v>388237.7909326652</v>
+        <v>425044.3204018953</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.334553731139361e-06</v>
+        <v>6.412470482263599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.140277777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>351184.9210612127</v>
+        <v>384478.6870161881</v>
       </c>
     </row>
     <row r="4">
@@ -54135,28 +54135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.7900281276374</v>
+        <v>283.5719778590397</v>
       </c>
       <c r="AB4" t="n">
-        <v>339.0372482085932</v>
+        <v>387.9956904194687</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.6800090814326</v>
+        <v>350.9659262812055</v>
       </c>
       <c r="AD4" t="n">
-        <v>247790.0281276374</v>
+        <v>283571.9778590397</v>
       </c>
       <c r="AE4" t="n">
-        <v>339037.2482085932</v>
+        <v>387995.6904194687</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.527063696185089e-06</v>
+        <v>6.782674284010567e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>306680.0090814325</v>
+        <v>350965.9262812055</v>
       </c>
     </row>
     <row r="5">
@@ -54241,28 +54241,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.5066355269164</v>
+        <v>259.492444320969</v>
       </c>
       <c r="AB5" t="n">
-        <v>318.1258361966022</v>
+        <v>355.0490103186351</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.7643528825082</v>
+        <v>321.1636310882394</v>
       </c>
       <c r="AD5" t="n">
-        <v>232506.6355269164</v>
+        <v>259492.444320969</v>
       </c>
       <c r="AE5" t="n">
-        <v>318125.8361966022</v>
+        <v>355049.0103186351</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.622890116897967e-06</v>
+        <v>6.966952044630829e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.572222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>287764.3528825082</v>
+        <v>321163.6310882394</v>
       </c>
     </row>
     <row r="6">
@@ -54347,28 +54347,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>228.1818974167759</v>
+        <v>255.1677062108252</v>
       </c>
       <c r="AB6" t="n">
-        <v>312.2085387203311</v>
+        <v>349.1317128421916</v>
       </c>
       <c r="AC6" t="n">
-        <v>282.4117939723914</v>
+        <v>315.8110721780736</v>
       </c>
       <c r="AD6" t="n">
-        <v>228181.8974167759</v>
+        <v>255167.7062108252</v>
       </c>
       <c r="AE6" t="n">
-        <v>312208.5387203312</v>
+        <v>349131.7128421916</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.649460949117101e-06</v>
+        <v>7.018048740330544e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.523611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>282411.7939723914</v>
+        <v>315811.0721780736</v>
       </c>
     </row>
     <row r="7">
@@ -54453,28 +54453,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>229.8032004679503</v>
+        <v>256.7890092619997</v>
       </c>
       <c r="AB7" t="n">
-        <v>314.4268770817894</v>
+        <v>351.3500512036499</v>
       </c>
       <c r="AC7" t="n">
-        <v>284.4184172340902</v>
+        <v>317.8176954397724</v>
       </c>
       <c r="AD7" t="n">
-        <v>229803.2004679503</v>
+        <v>256789.0092619997</v>
       </c>
       <c r="AE7" t="n">
-        <v>314426.8770817894</v>
+        <v>351350.0512036498</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.648260976049141e-06</v>
+        <v>7.015741147621526e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.526388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>284418.4172340902</v>
+        <v>317817.6954397724</v>
       </c>
     </row>
   </sheetData>
@@ -54750,28 +54750,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.1360584462311</v>
+        <v>254.5737332460489</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.5681110003592</v>
+        <v>348.3190128275473</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.6914351435852</v>
+        <v>315.075935112195</v>
       </c>
       <c r="AD2" t="n">
-        <v>221136.0584462311</v>
+        <v>254573.7332460489</v>
       </c>
       <c r="AE2" t="n">
-        <v>302568.1110003592</v>
+        <v>348319.0128275473</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.467862787366754e-06</v>
+        <v>7.152811431801774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.369444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>273691.4351435852</v>
+        <v>315075.935112195</v>
       </c>
     </row>
     <row r="3">
@@ -54856,28 +54856,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.6633279353009</v>
+        <v>219.1862540811394</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.0327561689072</v>
+        <v>299.9003026487445</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.7882264574332</v>
+        <v>271.2782386767552</v>
       </c>
       <c r="AD3" t="n">
-        <v>185663.3279353009</v>
+        <v>219186.2540811394</v>
       </c>
       <c r="AE3" t="n">
-        <v>254032.7561689072</v>
+        <v>299900.3026487445</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.749553042431403e-06</v>
+        <v>7.733825560732617e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.815277777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>229788.2264574332</v>
+        <v>271278.2386767552</v>
       </c>
     </row>
   </sheetData>
@@ -55153,28 +55153,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1033.163484284459</v>
+        <v>1102.449725221199</v>
       </c>
       <c r="AB2" t="n">
-        <v>1413.619859154051</v>
+        <v>1508.420350696919</v>
       </c>
       <c r="AC2" t="n">
-        <v>1278.705963824321</v>
+        <v>1364.458829507663</v>
       </c>
       <c r="AD2" t="n">
-        <v>1033163.484284459</v>
+        <v>1102449.725221199</v>
       </c>
       <c r="AE2" t="n">
-        <v>1413619.859154051</v>
+        <v>1508420.350696919</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.680257504892362e-06</v>
+        <v>2.952146153674662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.71944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1278705.963824321</v>
+        <v>1364458.829507663</v>
       </c>
     </row>
     <row r="3">
@@ -55259,28 +55259,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>524.9388390035311</v>
+        <v>564.4944915382601</v>
       </c>
       <c r="AB3" t="n">
-        <v>718.2444781917523</v>
+        <v>772.3662670619974</v>
       </c>
       <c r="AC3" t="n">
-        <v>649.6962332555871</v>
+        <v>698.6527145564637</v>
       </c>
       <c r="AD3" t="n">
-        <v>524938.8390035311</v>
+        <v>564494.4915382601</v>
       </c>
       <c r="AE3" t="n">
-        <v>718244.4781917522</v>
+        <v>772366.2670619974</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.526694916468633e-06</v>
+        <v>4.439303295740991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.458333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>649696.2332555872</v>
+        <v>698652.7145564638</v>
       </c>
     </row>
     <row r="4">
@@ -55365,28 +55365,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>436.4292160525731</v>
+        <v>476.0701199333226</v>
       </c>
       <c r="AB4" t="n">
-        <v>597.1417073012718</v>
+        <v>651.380140824166</v>
       </c>
       <c r="AC4" t="n">
-        <v>540.1513408500875</v>
+        <v>589.2133344016764</v>
       </c>
       <c r="AD4" t="n">
-        <v>436429.2160525731</v>
+        <v>476070.1199333227</v>
       </c>
       <c r="AE4" t="n">
-        <v>597141.7073012718</v>
+        <v>651380.140824166</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.825202202136324e-06</v>
+        <v>4.963768821210666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.563888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>540151.3408500876</v>
+        <v>589213.3344016764</v>
       </c>
     </row>
     <row r="5">
@@ -55471,28 +55471,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>403.5626520920325</v>
+        <v>433.2934195111457</v>
       </c>
       <c r="AB5" t="n">
-        <v>552.172224519992</v>
+        <v>592.8511721317111</v>
       </c>
       <c r="AC5" t="n">
-        <v>499.4736823903877</v>
+        <v>536.2702883353058</v>
       </c>
       <c r="AD5" t="n">
-        <v>403562.6520920325</v>
+        <v>433293.4195111457</v>
       </c>
       <c r="AE5" t="n">
-        <v>552172.224519992</v>
+        <v>592851.1721317112</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.977533239667774e-06</v>
+        <v>5.23140844503282e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.177777777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>499473.6823903877</v>
+        <v>536270.2883353059</v>
       </c>
     </row>
     <row r="6">
@@ -55577,28 +55577,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>374.182672270124</v>
+        <v>413.7382352963019</v>
       </c>
       <c r="AB6" t="n">
-        <v>511.9732399744249</v>
+        <v>566.0949063751215</v>
       </c>
       <c r="AC6" t="n">
-        <v>463.1112325102202</v>
+        <v>512.0676030298703</v>
       </c>
       <c r="AD6" t="n">
-        <v>374182.672270124</v>
+        <v>413738.2352963019</v>
       </c>
       <c r="AE6" t="n">
-        <v>511973.2399744249</v>
+        <v>566094.9063751214</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.072316996354009e-06</v>
+        <v>5.397939766522159e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.955555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>463111.2325102203</v>
+        <v>512067.6030298703</v>
       </c>
     </row>
     <row r="7">
@@ -55683,28 +55683,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>360.4830734360416</v>
+        <v>400.0386364622196</v>
       </c>
       <c r="AB7" t="n">
-        <v>493.2288444659882</v>
+        <v>547.3505108666849</v>
       </c>
       <c r="AC7" t="n">
-        <v>446.1557758011845</v>
+        <v>495.1121463208344</v>
       </c>
       <c r="AD7" t="n">
-        <v>360483.0734360416</v>
+        <v>400038.6364622196</v>
       </c>
       <c r="AE7" t="n">
-        <v>493228.8444659882</v>
+        <v>547350.5108666848</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.13925033102692e-06</v>
+        <v>5.515538995171287e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.806944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>446155.7758011845</v>
+        <v>495112.1463208344</v>
       </c>
     </row>
     <row r="8">
@@ -55789,28 +55789,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>351.5395566377679</v>
+        <v>391.0951196639459</v>
       </c>
       <c r="AB8" t="n">
-        <v>480.9919302224757</v>
+        <v>535.1135966231723</v>
       </c>
       <c r="AC8" t="n">
-        <v>435.0867354784558</v>
+        <v>484.0431059981057</v>
       </c>
       <c r="AD8" t="n">
-        <v>351539.5566377679</v>
+        <v>391095.1196639459</v>
       </c>
       <c r="AE8" t="n">
-        <v>480991.9302224757</v>
+        <v>535113.5966231723</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.18171837785387e-06</v>
+        <v>5.590153678176252e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.716666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>435086.7354784558</v>
+        <v>484043.1059981057</v>
       </c>
     </row>
     <row r="9">
@@ -55895,28 +55895,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>343.9822432128612</v>
+        <v>383.5378062390392</v>
       </c>
       <c r="AB9" t="n">
-        <v>470.6516805893805</v>
+        <v>524.7733469900771</v>
       </c>
       <c r="AC9" t="n">
-        <v>425.7333447577117</v>
+        <v>474.6897152773617</v>
       </c>
       <c r="AD9" t="n">
-        <v>343982.2432128612</v>
+        <v>383537.8062390392</v>
       </c>
       <c r="AE9" t="n">
-        <v>470651.6805893806</v>
+        <v>524773.3469900772</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.215569719527525e-06</v>
+        <v>5.649629150136729e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.645833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>425733.3447577117</v>
+        <v>474689.7152773617</v>
       </c>
     </row>
     <row r="10">
@@ -56001,28 +56001,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>336.2885941830123</v>
+        <v>366.104612948146</v>
       </c>
       <c r="AB10" t="n">
-        <v>460.124890566901</v>
+        <v>500.9204828312694</v>
       </c>
       <c r="AC10" t="n">
-        <v>416.2112168005351</v>
+        <v>453.1133349961655</v>
       </c>
       <c r="AD10" t="n">
-        <v>336288.5941830123</v>
+        <v>366104.6129481461</v>
       </c>
       <c r="AE10" t="n">
-        <v>460124.890566901</v>
+        <v>500920.4828312694</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.247882363852378e-06</v>
+        <v>5.70640119155355e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.580555555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>416211.2168005351</v>
+        <v>453113.3349961655</v>
       </c>
     </row>
     <row r="11">
@@ -56107,28 +56107,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>330.2258097668646</v>
+        <v>360.0418285319984</v>
       </c>
       <c r="AB11" t="n">
-        <v>451.8295214575565</v>
+        <v>492.6251137219249</v>
       </c>
       <c r="AC11" t="n">
-        <v>408.7075460763629</v>
+        <v>445.6096642719932</v>
       </c>
       <c r="AD11" t="n">
-        <v>330225.8097668646</v>
+        <v>360041.8285319984</v>
       </c>
       <c r="AE11" t="n">
-        <v>451829.5214575565</v>
+        <v>492625.1137219249</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.270501214879776e-06</v>
+        <v>5.746141620545325e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.534722222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>408707.5460763628</v>
+        <v>445609.6642719932</v>
       </c>
     </row>
     <row r="12">
@@ -56213,28 +56213,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>325.4925605816379</v>
+        <v>355.3085793467716</v>
       </c>
       <c r="AB12" t="n">
-        <v>445.3532811061127</v>
+        <v>486.1488733704811</v>
       </c>
       <c r="AC12" t="n">
-        <v>402.8493890146003</v>
+        <v>439.7515072102307</v>
       </c>
       <c r="AD12" t="n">
-        <v>325492.5605816378</v>
+        <v>355308.5793467716</v>
       </c>
       <c r="AE12" t="n">
-        <v>445353.2811061126</v>
+        <v>486148.8733704811</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.283887881814357e-06</v>
+        <v>5.76966146627515e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.508333333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>402849.3890146003</v>
+        <v>439751.5072102307</v>
       </c>
     </row>
     <row r="13">
@@ -56319,28 +56319,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>320.7062870564612</v>
+        <v>350.3517136210028</v>
       </c>
       <c r="AB13" t="n">
-        <v>438.8044905134807</v>
+        <v>479.3666710030021</v>
       </c>
       <c r="AC13" t="n">
-        <v>396.9256058048437</v>
+        <v>433.6165887178231</v>
       </c>
       <c r="AD13" t="n">
-        <v>320706.2870564612</v>
+        <v>350351.7136210028</v>
       </c>
       <c r="AE13" t="n">
-        <v>438804.4905134807</v>
+        <v>479366.6710030021</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.300044203976784e-06</v>
+        <v>5.798047486983559e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.476388888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>396925.6058048437</v>
+        <v>433616.5887178231</v>
       </c>
     </row>
     <row r="14">
@@ -56425,28 +56425,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>315.3509567490593</v>
+        <v>344.9963833136009</v>
       </c>
       <c r="AB14" t="n">
-        <v>431.4770913263947</v>
+        <v>472.039271815916</v>
       </c>
       <c r="AC14" t="n">
-        <v>390.2975233121038</v>
+        <v>426.9885062250833</v>
       </c>
       <c r="AD14" t="n">
-        <v>315350.9567490593</v>
+        <v>344996.3833136008</v>
       </c>
       <c r="AE14" t="n">
-        <v>431477.0913263946</v>
+        <v>472039.2718159161</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.31589278666945e-06</v>
+        <v>5.825892821583239e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.444444444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>390297.5233121038</v>
+        <v>426988.5062250833</v>
       </c>
     </row>
     <row r="15">
@@ -56531,28 +56531,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>310.7704605037242</v>
+        <v>340.4158870682658</v>
       </c>
       <c r="AB15" t="n">
-        <v>425.2098542862948</v>
+        <v>465.7720347758161</v>
       </c>
       <c r="AC15" t="n">
-        <v>384.6284225789887</v>
+        <v>421.319405491968</v>
       </c>
       <c r="AD15" t="n">
-        <v>310770.4605037242</v>
+        <v>340415.8870682658</v>
       </c>
       <c r="AE15" t="n">
-        <v>425209.8542862948</v>
+        <v>465772.0347758161</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.327279147050589e-06</v>
+        <v>5.845898207606309e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.423611111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>384628.4225789887</v>
+        <v>421319.405491968</v>
       </c>
     </row>
     <row r="16">
@@ -56637,28 +56637,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>308.3948957218487</v>
+        <v>338.0403222863903</v>
       </c>
       <c r="AB16" t="n">
-        <v>421.9595017492111</v>
+        <v>462.5216822387326</v>
       </c>
       <c r="AC16" t="n">
-        <v>381.688279126146</v>
+        <v>418.3792620391253</v>
       </c>
       <c r="AD16" t="n">
-        <v>308394.8957218488</v>
+        <v>338040.3222863904</v>
       </c>
       <c r="AE16" t="n">
-        <v>421959.5017492112</v>
+        <v>462521.6822387326</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.330972020687715e-06</v>
+        <v>5.852386440911089e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.415277777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>381688.279126146</v>
+        <v>418379.2620391253</v>
       </c>
     </row>
     <row r="17">
@@ -56743,28 +56743,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>307.1426262611693</v>
+        <v>336.7880528257109</v>
       </c>
       <c r="AB17" t="n">
-        <v>420.2460914268801</v>
+        <v>460.8082719164015</v>
       </c>
       <c r="AC17" t="n">
-        <v>380.1383942801916</v>
+        <v>416.829377193171</v>
       </c>
       <c r="AD17" t="n">
-        <v>307142.6262611693</v>
+        <v>336788.0528257109</v>
       </c>
       <c r="AE17" t="n">
-        <v>420246.0914268801</v>
+        <v>460808.2719164015</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.336203591673644e-06</v>
+        <v>5.861578104759526e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.405555555555555</v>
       </c>
       <c r="AH17" t="n">
-        <v>380138.3942801916</v>
+        <v>416829.3771931709</v>
       </c>
     </row>
     <row r="18">
@@ -56849,28 +56849,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>307.5846117274509</v>
+        <v>337.2300382919925</v>
       </c>
       <c r="AB18" t="n">
-        <v>420.8508354408691</v>
+        <v>461.4130159303905</v>
       </c>
       <c r="AC18" t="n">
-        <v>380.6854223742491</v>
+        <v>417.3764052872285</v>
       </c>
       <c r="AD18" t="n">
-        <v>307584.6117274509</v>
+        <v>337230.0382919925</v>
       </c>
       <c r="AE18" t="n">
-        <v>420850.8354408691</v>
+        <v>461413.0159303905</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.334818764059721e-06</v>
+        <v>5.859145017270234e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.408333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>380685.4223742491</v>
+        <v>417376.4052872285</v>
       </c>
     </row>
   </sheetData>
@@ -57146,28 +57146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1640.86351099071</v>
+        <v>1722.926765170035</v>
       </c>
       <c r="AB2" t="n">
-        <v>2245.10184552658</v>
+        <v>2357.384410269992</v>
       </c>
       <c r="AC2" t="n">
-        <v>2030.832476409753</v>
+        <v>2132.398950763624</v>
       </c>
       <c r="AD2" t="n">
-        <v>1640863.51099071</v>
+        <v>1722926.765170034</v>
       </c>
       <c r="AE2" t="n">
-        <v>2245101.84552658</v>
+        <v>2357384.410269992</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.302140273820072e-06</v>
+        <v>2.226514754600902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.81527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2030832.476409753</v>
+        <v>2132398.950763624</v>
       </c>
     </row>
     <row r="3">
@@ -57252,28 +57252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>666.2735012233359</v>
+        <v>707.3052178215493</v>
       </c>
       <c r="AB3" t="n">
-        <v>911.6247982861245</v>
+        <v>967.7662031273794</v>
       </c>
       <c r="AC3" t="n">
-        <v>824.6206070111365</v>
+        <v>875.4039549692985</v>
       </c>
       <c r="AD3" t="n">
-        <v>666273.5012233359</v>
+        <v>707305.2178215493</v>
       </c>
       <c r="AE3" t="n">
-        <v>911624.7982861245</v>
+        <v>967766.2031273794</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.239527066246682e-06</v>
+        <v>3.829341705020728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.195833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>824620.6070111365</v>
+        <v>875403.9549692986</v>
       </c>
     </row>
     <row r="4">
@@ -57358,28 +57358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>536.5084081757776</v>
+        <v>577.4547839194194</v>
       </c>
       <c r="AB4" t="n">
-        <v>734.0744731465886</v>
+        <v>790.0991108656459</v>
       </c>
       <c r="AC4" t="n">
-        <v>664.0154357094714</v>
+        <v>714.6931606356947</v>
       </c>
       <c r="AD4" t="n">
-        <v>536508.4081757776</v>
+        <v>577454.7839194194</v>
       </c>
       <c r="AE4" t="n">
-        <v>734074.4731465887</v>
+        <v>790099.1108656459</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.57358787664484e-06</v>
+        <v>4.400548462264617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.00138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>664015.4357094713</v>
+        <v>714693.1606356946</v>
       </c>
     </row>
     <row r="5">
@@ -57464,28 +57464,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>477.9922575135586</v>
+        <v>518.8532924026287</v>
       </c>
       <c r="AB5" t="n">
-        <v>654.0100942601701</v>
+        <v>709.9179648570295</v>
       </c>
       <c r="AC5" t="n">
-        <v>591.592288772911</v>
+        <v>642.1643906671954</v>
       </c>
       <c r="AD5" t="n">
-        <v>477992.2575135586</v>
+        <v>518853.2924026286</v>
       </c>
       <c r="AE5" t="n">
-        <v>654010.0942601701</v>
+        <v>709917.9648570295</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.750330213970452e-06</v>
+        <v>4.702758162501951e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.487499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>591592.2887729111</v>
+        <v>642164.3906671954</v>
       </c>
     </row>
     <row r="6">
@@ -57570,28 +57570,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>450.8843678288636</v>
+        <v>481.6581776546614</v>
       </c>
       <c r="AB6" t="n">
-        <v>616.919883677881</v>
+        <v>659.0259679262092</v>
       </c>
       <c r="AC6" t="n">
-        <v>558.0419158321582</v>
+        <v>596.1294544960864</v>
       </c>
       <c r="AD6" t="n">
-        <v>450884.3678288636</v>
+        <v>481658.1776546614</v>
       </c>
       <c r="AE6" t="n">
-        <v>616919.883677881</v>
+        <v>659025.9679262092</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.86153554366358e-06</v>
+        <v>4.892906883288865e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.197222222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>558041.9158321582</v>
+        <v>596129.4544960863</v>
       </c>
     </row>
     <row r="7">
@@ -57676,28 +57676,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>435.1630658988513</v>
+        <v>465.9368757246491</v>
       </c>
       <c r="AB7" t="n">
-        <v>595.4093048023472</v>
+        <v>637.5153890506754</v>
       </c>
       <c r="AC7" t="n">
-        <v>538.5842764142182</v>
+        <v>576.6718150781464</v>
       </c>
       <c r="AD7" t="n">
-        <v>435163.0658988513</v>
+        <v>465936.8757246491</v>
       </c>
       <c r="AE7" t="n">
-        <v>595409.3048023472</v>
+        <v>637515.3890506753</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.93048284807332e-06</v>
+        <v>5.010799090176751e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.027777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>538584.2764142181</v>
+        <v>576671.8150781464</v>
       </c>
     </row>
     <row r="8">
@@ -57782,28 +57782,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>411.5408399608957</v>
+        <v>452.4871261959863</v>
       </c>
       <c r="AB8" t="n">
-        <v>563.0883331349783</v>
+        <v>619.1128483844869</v>
       </c>
       <c r="AC8" t="n">
-        <v>509.3479729200143</v>
+        <v>560.025587065011</v>
       </c>
       <c r="AD8" t="n">
-        <v>411540.8399608957</v>
+        <v>452487.1261959863</v>
       </c>
       <c r="AE8" t="n">
-        <v>563088.3331349783</v>
+        <v>619112.848384487</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.988754440832519e-06</v>
+        <v>5.110437019869094e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.890277777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>509347.9729200143</v>
+        <v>560025.587065011</v>
       </c>
     </row>
     <row r="9">
@@ -57888,28 +57888,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>402.5548963365079</v>
+        <v>443.5011825715985</v>
       </c>
       <c r="AB9" t="n">
-        <v>550.793368636237</v>
+        <v>606.8178838857457</v>
       </c>
       <c r="AC9" t="n">
-        <v>498.2264225769418</v>
+        <v>548.9040367219385</v>
       </c>
       <c r="AD9" t="n">
-        <v>402554.8963365079</v>
+        <v>443501.1825715984</v>
       </c>
       <c r="AE9" t="n">
-        <v>550793.368636237</v>
+        <v>606817.8838857457</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.028343538203273e-06</v>
+        <v>5.178129964469236e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>498226.4225769418</v>
+        <v>548904.0367219385</v>
       </c>
     </row>
     <row r="10">
@@ -57994,28 +57994,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>395.143255887701</v>
+        <v>436.0895421227916</v>
       </c>
       <c r="AB10" t="n">
-        <v>540.6524351956799</v>
+        <v>596.6769504451886</v>
       </c>
       <c r="AC10" t="n">
-        <v>489.0533255910619</v>
+        <v>539.7309397360588</v>
       </c>
       <c r="AD10" t="n">
-        <v>395143.255887701</v>
+        <v>436089.5421227916</v>
       </c>
       <c r="AE10" t="n">
-        <v>540652.4351956799</v>
+        <v>596676.9504451886</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.059184482971501e-06</v>
+        <v>5.230864543034141e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.731944444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>489053.325591062</v>
+        <v>539730.9397360587</v>
       </c>
     </row>
     <row r="11">
@@ -58100,28 +58100,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>388.8883705985207</v>
+        <v>429.8346568336113</v>
       </c>
       <c r="AB11" t="n">
-        <v>532.0942251969598</v>
+        <v>588.1187404464685</v>
       </c>
       <c r="AC11" t="n">
-        <v>481.3118991430966</v>
+        <v>531.9895132880932</v>
       </c>
       <c r="AD11" t="n">
-        <v>388888.3705985207</v>
+        <v>429834.6568336114</v>
       </c>
       <c r="AE11" t="n">
-        <v>532094.2251969598</v>
+        <v>588118.7404464685</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.085873762097851e-06</v>
+        <v>5.276500236022999e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.673611111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>481311.8991430966</v>
+        <v>531989.5132880933</v>
       </c>
     </row>
     <row r="12">
@@ -58206,28 +58206,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>382.9364758607918</v>
+        <v>423.8827620958824</v>
       </c>
       <c r="AB12" t="n">
-        <v>523.9505802377352</v>
+        <v>579.9750954872438</v>
       </c>
       <c r="AC12" t="n">
-        <v>473.9454722291027</v>
+        <v>524.6230863740993</v>
       </c>
       <c r="AD12" t="n">
-        <v>382936.4758607918</v>
+        <v>423882.7620958824</v>
       </c>
       <c r="AE12" t="n">
-        <v>523950.5802377351</v>
+        <v>579975.0954872438</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.107966554263553e-06</v>
+        <v>5.314276448552666e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.626388888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>473945.4722291027</v>
+        <v>524623.0863740994</v>
       </c>
     </row>
     <row r="13">
@@ -58312,28 +58312,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>379.0808804930388</v>
+        <v>409.9399416648571</v>
       </c>
       <c r="AB13" t="n">
-        <v>518.6751845587125</v>
+        <v>560.89791345969</v>
       </c>
       <c r="AC13" t="n">
-        <v>469.1735529096218</v>
+        <v>507.3666038242623</v>
       </c>
       <c r="AD13" t="n">
-        <v>379080.8804930388</v>
+        <v>409939.9416648571</v>
       </c>
       <c r="AE13" t="n">
-        <v>518675.1845587125</v>
+        <v>560897.9134596901</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.122200836464274e-06</v>
+        <v>5.338615484813391e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.595833333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>469173.5529096219</v>
+        <v>507366.6038242623</v>
       </c>
     </row>
     <row r="14">
@@ -58418,28 +58418,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>374.4895312352098</v>
+        <v>405.3485924070281</v>
       </c>
       <c r="AB14" t="n">
-        <v>512.3930979481174</v>
+        <v>554.6158268490949</v>
       </c>
       <c r="AC14" t="n">
-        <v>463.491019828178</v>
+        <v>501.6840707428184</v>
       </c>
       <c r="AD14" t="n">
-        <v>374489.5312352098</v>
+        <v>405348.5924070281</v>
       </c>
       <c r="AE14" t="n">
-        <v>512393.0979481175</v>
+        <v>554615.8268490949</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.138362677713008e-06</v>
+        <v>5.366250432234423e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH14" t="n">
-        <v>463491.019828178</v>
+        <v>501684.0707428184</v>
       </c>
     </row>
     <row r="15">
@@ -58524,28 +58524,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>370.2246488265965</v>
+        <v>401.0837099984149</v>
       </c>
       <c r="AB15" t="n">
-        <v>506.5576976833201</v>
+        <v>548.7804265842975</v>
       </c>
       <c r="AC15" t="n">
-        <v>458.2125419746172</v>
+        <v>496.4055928892576</v>
       </c>
       <c r="AD15" t="n">
-        <v>370224.6488265966</v>
+        <v>401083.7099984149</v>
       </c>
       <c r="AE15" t="n">
-        <v>506557.6976833201</v>
+        <v>548780.4265842976</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.148890115590624e-06</v>
+        <v>5.384251177802251e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.540277777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>458212.5419746172</v>
+        <v>496405.5928892576</v>
       </c>
     </row>
     <row r="16">
@@ -58630,28 +58630,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>367.4717762955663</v>
+        <v>398.3308374673845</v>
       </c>
       <c r="AB16" t="n">
-        <v>502.7910960381997</v>
+        <v>545.0138249391773</v>
       </c>
       <c r="AC16" t="n">
-        <v>454.8054195040485</v>
+        <v>492.998470418689</v>
       </c>
       <c r="AD16" t="n">
-        <v>367471.7762955663</v>
+        <v>398330.8374673845</v>
       </c>
       <c r="AE16" t="n">
-        <v>502791.0960381997</v>
+        <v>545013.8249391773</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.158824458376543e-06</v>
+        <v>5.401237796859214e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.519444444444444</v>
       </c>
       <c r="AH16" t="n">
-        <v>454805.4195040485</v>
+        <v>492998.470418689</v>
       </c>
     </row>
     <row r="17">
@@ -58736,28 +58736,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>363.3725165711247</v>
+        <v>394.0609855423508</v>
       </c>
       <c r="AB17" t="n">
-        <v>497.1823080366433</v>
+        <v>539.1716251627739</v>
       </c>
       <c r="AC17" t="n">
-        <v>449.7319263573772</v>
+        <v>487.7138419893665</v>
       </c>
       <c r="AD17" t="n">
-        <v>363372.5165711247</v>
+        <v>394060.9855423508</v>
       </c>
       <c r="AE17" t="n">
-        <v>497182.3080366434</v>
+        <v>539171.6251627739</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.170834633983401e-06</v>
+        <v>5.421773858704201e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.494444444444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>449731.9263573772</v>
+        <v>487713.8419893665</v>
       </c>
     </row>
     <row r="18">
@@ -58842,28 +58842,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>359.5785213829355</v>
+        <v>390.2669903541616</v>
       </c>
       <c r="AB18" t="n">
-        <v>491.9911964409082</v>
+        <v>533.9805135670387</v>
       </c>
       <c r="AC18" t="n">
-        <v>445.0362471665682</v>
+        <v>483.0181627985576</v>
       </c>
       <c r="AD18" t="n">
-        <v>359578.5213829355</v>
+        <v>390266.9903541617</v>
       </c>
       <c r="AE18" t="n">
-        <v>491991.1964409082</v>
+        <v>533980.5135670387</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.182399988271487e-06</v>
+        <v>5.441549325666041e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.470833333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>445036.2471665682</v>
+        <v>483018.1627985575</v>
       </c>
     </row>
     <row r="19">
@@ -58948,28 +58948,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>356.7140098063903</v>
+        <v>387.4024787776164</v>
       </c>
       <c r="AB19" t="n">
-        <v>488.0718453285472</v>
+        <v>530.0611624546777</v>
       </c>
       <c r="AC19" t="n">
-        <v>441.4909534235271</v>
+        <v>479.4728690555164</v>
       </c>
       <c r="AD19" t="n">
-        <v>356714.0098063903</v>
+        <v>387402.4787776163</v>
       </c>
       <c r="AE19" t="n">
-        <v>488071.8453285472</v>
+        <v>530061.1624546777</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.187144749005061e-06</v>
+        <v>5.449662337752949e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.461111111111112</v>
       </c>
       <c r="AH19" t="n">
-        <v>441490.9534235271</v>
+        <v>479472.8690555164</v>
       </c>
     </row>
     <row r="20">
@@ -59054,28 +59054,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>353.7629540118706</v>
+        <v>384.4514229830968</v>
       </c>
       <c r="AB20" t="n">
-        <v>484.0340805990923</v>
+        <v>526.0233977252227</v>
       </c>
       <c r="AC20" t="n">
-        <v>437.838547292813</v>
+        <v>475.8204629248023</v>
       </c>
       <c r="AD20" t="n">
-        <v>353762.9540118707</v>
+        <v>384451.4229830968</v>
       </c>
       <c r="AE20" t="n">
-        <v>484034.0805990923</v>
+        <v>526023.3977252227</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.192927426149103e-06</v>
+        <v>5.459550071233868e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.449999999999999</v>
       </c>
       <c r="AH20" t="n">
-        <v>437838.547292813</v>
+        <v>475820.4629248023</v>
       </c>
     </row>
     <row r="21">
@@ -59160,28 +59160,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>350.2475378841581</v>
+        <v>380.9360068553842</v>
       </c>
       <c r="AB21" t="n">
-        <v>479.2241331639421</v>
+        <v>521.2134502900726</v>
       </c>
       <c r="AC21" t="n">
-        <v>433.4876544900699</v>
+        <v>471.4695701220593</v>
       </c>
       <c r="AD21" t="n">
-        <v>350247.5378841581</v>
+        <v>380936.0068553842</v>
       </c>
       <c r="AE21" t="n">
-        <v>479224.1331639421</v>
+        <v>521213.4502900726</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.197227365563904e-06</v>
+        <v>5.466902488437629e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.440277777777777</v>
       </c>
       <c r="AH21" t="n">
-        <v>433487.6544900699</v>
+        <v>471469.5701220593</v>
       </c>
     </row>
     <row r="22">
@@ -59266,28 +59266,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>347.0752943923582</v>
+        <v>377.7637633635844</v>
       </c>
       <c r="AB22" t="n">
-        <v>474.8837296689558</v>
+        <v>516.8730467950863</v>
       </c>
       <c r="AC22" t="n">
-        <v>429.5614930128506</v>
+        <v>467.5434086448399</v>
       </c>
       <c r="AD22" t="n">
-        <v>347075.2943923582</v>
+        <v>377763.7633635844</v>
       </c>
       <c r="AE22" t="n">
-        <v>474883.7296689558</v>
+        <v>516873.0467950864</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.205085875528885e-06</v>
+        <v>5.480339664706571e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.425</v>
       </c>
       <c r="AH22" t="n">
-        <v>429561.4930128506</v>
+        <v>467543.4086448399</v>
       </c>
     </row>
     <row r="23">
@@ -59372,28 +59372,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>343.9976652486967</v>
+        <v>374.6861342199228</v>
       </c>
       <c r="AB23" t="n">
-        <v>470.6727816991828</v>
+        <v>512.6620988253133</v>
       </c>
       <c r="AC23" t="n">
-        <v>425.75243200721</v>
+        <v>463.7343476391994</v>
       </c>
       <c r="AD23" t="n">
-        <v>343997.6652486967</v>
+        <v>374686.1342199228</v>
       </c>
       <c r="AE23" t="n">
-        <v>470672.7816991828</v>
+        <v>512662.0988253133</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.210720278900004e-06</v>
+        <v>5.489973866559774e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.413888888888889</v>
       </c>
       <c r="AH23" t="n">
-        <v>425752.43200721</v>
+        <v>463734.3476391994</v>
       </c>
     </row>
     <row r="24">
@@ -59478,28 +59478,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>343.2116170025317</v>
+        <v>373.9000859737578</v>
       </c>
       <c r="AB24" t="n">
-        <v>469.5972758107787</v>
+        <v>511.5865929369092</v>
       </c>
       <c r="AC24" t="n">
-        <v>424.7795708913133</v>
+        <v>462.7614865233026</v>
       </c>
       <c r="AD24" t="n">
-        <v>343211.6170025317</v>
+        <v>373900.0859737578</v>
       </c>
       <c r="AE24" t="n">
-        <v>469597.2758107787</v>
+        <v>511586.5929369092</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.216354682271122e-06</v>
+        <v>5.499608068412978e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.402777777777778</v>
       </c>
       <c r="AH24" t="n">
-        <v>424779.5708913133</v>
+        <v>462761.4865233026</v>
       </c>
     </row>
     <row r="25">
@@ -59584,28 +59584,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>343.0403628472619</v>
+        <v>373.728831818488</v>
       </c>
       <c r="AB25" t="n">
-        <v>469.3629583203385</v>
+        <v>511.352275446469</v>
       </c>
       <c r="AC25" t="n">
-        <v>424.567616333294</v>
+        <v>462.5495319652833</v>
       </c>
       <c r="AD25" t="n">
-        <v>343040.3628472619</v>
+        <v>373728.831818488</v>
       </c>
       <c r="AE25" t="n">
-        <v>469362.9583203385</v>
+        <v>511352.275446469</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.215465039633577e-06</v>
+        <v>5.498086878646683e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6.404166666666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>424567.616333294</v>
+        <v>462549.5319652833</v>
       </c>
     </row>
     <row r="26">
@@ -59690,28 +59690,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>343.7195936944001</v>
+        <v>374.4080626656262</v>
       </c>
       <c r="AB26" t="n">
-        <v>470.2923119309431</v>
+        <v>512.2816290570736</v>
       </c>
       <c r="AC26" t="n">
-        <v>425.4082737396584</v>
+        <v>463.3901893716478</v>
       </c>
       <c r="AD26" t="n">
-        <v>343719.5936944001</v>
+        <v>374408.0626656262</v>
       </c>
       <c r="AE26" t="n">
-        <v>470292.3119309431</v>
+        <v>512281.6290570736</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.214575396996032e-06</v>
+        <v>5.496565688880388e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>6.406944444444445</v>
       </c>
       <c r="AH26" t="n">
-        <v>425408.2737396584</v>
+        <v>463390.1893716478</v>
       </c>
     </row>
   </sheetData>
@@ -59987,28 +59987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.7024402910622</v>
+        <v>197.1163151998547</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.299097900061</v>
+        <v>269.7032386143997</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.7470436444143</v>
+        <v>243.9631400519931</v>
       </c>
       <c r="AD2" t="n">
-        <v>172702.4402910622</v>
+        <v>197116.3151998547</v>
       </c>
       <c r="AE2" t="n">
-        <v>236299.097900061</v>
+        <v>269703.2386143997</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.697482036065085e-06</v>
+        <v>7.925407028244559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.156944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>213747.0436444143</v>
+        <v>243963.1400519931</v>
       </c>
     </row>
     <row r="3">
@@ -60093,28 +60093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.1172997936028</v>
+        <v>199.5311747023952</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.6032152075176</v>
+        <v>273.0073559218563</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.7358206334062</v>
+        <v>246.9519170409849</v>
       </c>
       <c r="AD3" t="n">
-        <v>175117.2997936028</v>
+        <v>199531.1747023952</v>
       </c>
       <c r="AE3" t="n">
-        <v>239603.2152075176</v>
+        <v>273007.3559218563</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.697291512953009e-06</v>
+        <v>7.92499864946225e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.156944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>216735.8206334062</v>
+        <v>246951.9170409849</v>
       </c>
     </row>
   </sheetData>
@@ -60390,28 +60390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>579.4196687145453</v>
+        <v>635.5184508558785</v>
       </c>
       <c r="AB2" t="n">
-        <v>792.7875529269367</v>
+        <v>869.5443815563067</v>
       </c>
       <c r="AC2" t="n">
-        <v>717.1250215599079</v>
+        <v>786.5562861937765</v>
       </c>
       <c r="AD2" t="n">
-        <v>579419.6687145453</v>
+        <v>635518.4508558785</v>
       </c>
       <c r="AE2" t="n">
-        <v>792787.5529269367</v>
+        <v>869544.3815563067</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.271499448231081e-06</v>
+        <v>4.18508448689179e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.984722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>717125.0215599078</v>
+        <v>786556.2861937765</v>
       </c>
     </row>
     <row r="3">
@@ -60496,28 +60496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>369.4634155638206</v>
+        <v>406.9763914641381</v>
       </c>
       <c r="AB3" t="n">
-        <v>505.5161447499486</v>
+        <v>556.8430533324589</v>
       </c>
       <c r="AC3" t="n">
-        <v>457.270393391378</v>
+        <v>503.6987338565422</v>
       </c>
       <c r="AD3" t="n">
-        <v>369463.4155638206</v>
+        <v>406976.3914641382</v>
       </c>
       <c r="AE3" t="n">
-        <v>505516.1447499486</v>
+        <v>556843.0533324589</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.975811246952912e-06</v>
+        <v>5.482731459714528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.622222222222224</v>
       </c>
       <c r="AH3" t="n">
-        <v>457270.393391378</v>
+        <v>503698.7338565422</v>
       </c>
     </row>
     <row r="4">
@@ -60602,28 +60602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>328.5051180060712</v>
+        <v>356.6399394398605</v>
       </c>
       <c r="AB4" t="n">
-        <v>449.475195078876</v>
+        <v>487.9704989853072</v>
       </c>
       <c r="AC4" t="n">
-        <v>406.5779133029457</v>
+        <v>441.3992794330454</v>
       </c>
       <c r="AD4" t="n">
-        <v>328505.1180060712</v>
+        <v>356639.9394398605</v>
       </c>
       <c r="AE4" t="n">
-        <v>449475.195078876</v>
+        <v>487970.4989853072</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.211452778498379e-06</v>
+        <v>5.916885084055639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>406577.9133029457</v>
+        <v>441399.2794330454</v>
       </c>
     </row>
     <row r="5">
@@ -60708,28 +60708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>298.28955104993</v>
+        <v>335.7171860956759</v>
       </c>
       <c r="AB5" t="n">
-        <v>408.1329233527492</v>
+        <v>459.3430648130617</v>
       </c>
       <c r="AC5" t="n">
-        <v>369.1812899661176</v>
+        <v>415.504007399343</v>
       </c>
       <c r="AD5" t="n">
-        <v>298289.55104993</v>
+        <v>335717.1860956759</v>
       </c>
       <c r="AE5" t="n">
-        <v>408132.9233527492</v>
+        <v>459343.0648130617</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.335233984951231e-06</v>
+        <v>6.144943606058801e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>369181.2899661175</v>
+        <v>415504.007399343</v>
       </c>
     </row>
     <row r="6">
@@ -60814,28 +60814,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>285.2811548309618</v>
+        <v>322.7087898767077</v>
       </c>
       <c r="AB6" t="n">
-        <v>390.3342617560189</v>
+        <v>441.5444032163314</v>
       </c>
       <c r="AC6" t="n">
-        <v>353.0813076516008</v>
+        <v>399.4040250848261</v>
       </c>
       <c r="AD6" t="n">
-        <v>285281.1548309618</v>
+        <v>322708.7898767077</v>
       </c>
       <c r="AE6" t="n">
-        <v>390334.2617560189</v>
+        <v>441544.4032163314</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.407249172346623e-06</v>
+        <v>6.277626730337685e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.656944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>353081.3076516007</v>
+        <v>399404.025084826</v>
       </c>
     </row>
     <row r="7">
@@ -60920,28 +60920,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>274.3216167375812</v>
+        <v>302.541689517391</v>
       </c>
       <c r="AB7" t="n">
-        <v>375.3389382359587</v>
+        <v>413.9508867950391</v>
       </c>
       <c r="AC7" t="n">
-        <v>339.5171167622264</v>
+        <v>374.4439951430384</v>
       </c>
       <c r="AD7" t="n">
-        <v>274321.6167375812</v>
+        <v>302541.689517391</v>
       </c>
       <c r="AE7" t="n">
-        <v>375338.9382359587</v>
+        <v>413950.8867950391</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.462771085531278e-06</v>
+        <v>6.379922109600316e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.55</v>
       </c>
       <c r="AH7" t="n">
-        <v>339517.1167622263</v>
+        <v>374443.9951430383</v>
       </c>
     </row>
     <row r="8">
@@ -61026,28 +61026,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>266.2362514854677</v>
+        <v>294.2857320646853</v>
       </c>
       <c r="AB8" t="n">
-        <v>364.2761847968766</v>
+        <v>402.6547215811102</v>
       </c>
       <c r="AC8" t="n">
-        <v>329.5101769846984</v>
+        <v>364.2259200828593</v>
       </c>
       <c r="AD8" t="n">
-        <v>266236.2514854677</v>
+        <v>294285.7320646853</v>
       </c>
       <c r="AE8" t="n">
-        <v>364276.1847968766</v>
+        <v>402654.7215811101</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.496737432420716e-06</v>
+        <v>6.442502812208045e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.486111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>329510.1769846984</v>
+        <v>364225.9200828593</v>
       </c>
     </row>
     <row r="9">
@@ -61132,28 +61132,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>261.0697233071739</v>
+        <v>289.1192038863915</v>
       </c>
       <c r="AB9" t="n">
-        <v>357.2071130121985</v>
+        <v>395.5856497964319</v>
       </c>
       <c r="AC9" t="n">
-        <v>323.1157674896453</v>
+        <v>357.8315105878061</v>
       </c>
       <c r="AD9" t="n">
-        <v>261069.7233071739</v>
+        <v>289119.2038863915</v>
       </c>
       <c r="AE9" t="n">
-        <v>357207.1130121985</v>
+        <v>395585.6497964319</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.516006802290684e-06</v>
+        <v>6.478005326187428e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.451388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>323115.7674896453</v>
+        <v>357831.5105878061</v>
       </c>
     </row>
     <row r="10">
@@ -61238,28 +61238,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>260.3970787222296</v>
+        <v>288.4465593014472</v>
       </c>
       <c r="AB10" t="n">
-        <v>356.286771016093</v>
+        <v>394.6653078003264</v>
       </c>
       <c r="AC10" t="n">
-        <v>322.28326164194</v>
+        <v>356.9990047401009</v>
       </c>
       <c r="AD10" t="n">
-        <v>260397.0787222296</v>
+        <v>288446.5593014472</v>
       </c>
       <c r="AE10" t="n">
-        <v>356286.771016093</v>
+        <v>394665.3078003264</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.51943609692856e-06</v>
+        <v>6.484323570200708e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.444444444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>322283.26164194</v>
+        <v>356999.0047401009</v>
       </c>
     </row>
     <row r="11">
@@ -61344,28 +61344,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>261.8024069870858</v>
+        <v>289.8518875663034</v>
       </c>
       <c r="AB11" t="n">
-        <v>358.2096031467767</v>
+        <v>396.5881399310101</v>
       </c>
       <c r="AC11" t="n">
-        <v>324.0225813727831</v>
+        <v>358.738324470944</v>
       </c>
       <c r="AD11" t="n">
-        <v>261802.4069870858</v>
+        <v>289851.8875663034</v>
       </c>
       <c r="AE11" t="n">
-        <v>358209.6031467767</v>
+        <v>396588.1399310101</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.5192727971839e-06</v>
+        <v>6.484022701438172e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.444444444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>324022.5813727831</v>
+        <v>358738.324470944</v>
       </c>
     </row>
   </sheetData>
@@ -61641,28 +61641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>827.0795646178781</v>
+        <v>885.3621500632922</v>
       </c>
       <c r="AB2" t="n">
-        <v>1131.646748485366</v>
+        <v>1211.391553137982</v>
       </c>
       <c r="AC2" t="n">
-        <v>1023.643971086109</v>
+        <v>1095.778043505215</v>
       </c>
       <c r="AD2" t="n">
-        <v>827079.5646178781</v>
+        <v>885362.1500632922</v>
       </c>
       <c r="AE2" t="n">
-        <v>1131646.748485366</v>
+        <v>1211391.553137982</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.895947957174059e-06</v>
+        <v>3.386972662469483e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.51666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1023643.971086109</v>
+        <v>1095778.043505216</v>
       </c>
     </row>
     <row r="3">
@@ -61747,28 +61747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>464.880996496718</v>
+        <v>503.6508021143069</v>
       </c>
       <c r="AB3" t="n">
-        <v>636.0706885089161</v>
+        <v>689.1172469580109</v>
       </c>
       <c r="AC3" t="n">
-        <v>575.3649947284425</v>
+        <v>623.3488640904682</v>
       </c>
       <c r="AD3" t="n">
-        <v>464880.996496718</v>
+        <v>503650.8021143069</v>
       </c>
       <c r="AE3" t="n">
-        <v>636070.6885089161</v>
+        <v>689117.2469580109</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.691494574911909e-06</v>
+        <v>4.808158637433874e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.112499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>575364.9947284425</v>
+        <v>623348.8640904682</v>
       </c>
     </row>
     <row r="4">
@@ -61853,28 +61853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>393.3911238733195</v>
+        <v>432.0755886363369</v>
       </c>
       <c r="AB4" t="n">
-        <v>538.2550908749942</v>
+        <v>591.1848822018911</v>
       </c>
       <c r="AC4" t="n">
-        <v>486.8847804476486</v>
+        <v>534.7630267777354</v>
       </c>
       <c r="AD4" t="n">
-        <v>393391.1238733195</v>
+        <v>432075.5886363368</v>
       </c>
       <c r="AE4" t="n">
-        <v>538255.0908749942</v>
+        <v>591184.8822018912</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.96679143808562e-06</v>
+        <v>5.299956392801985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.361111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>486884.7804476486</v>
+        <v>534763.0267777353</v>
       </c>
     </row>
     <row r="5">
@@ -61959,28 +61959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>365.2101793614685</v>
+        <v>394.3515615927267</v>
       </c>
       <c r="AB5" t="n">
-        <v>499.6966793383523</v>
+        <v>539.5692041342086</v>
       </c>
       <c r="AC5" t="n">
-        <v>452.0063295909935</v>
+        <v>488.0734765817733</v>
       </c>
       <c r="AD5" t="n">
-        <v>365210.1793614685</v>
+        <v>394351.5615927267</v>
       </c>
       <c r="AE5" t="n">
-        <v>499696.6793383523</v>
+        <v>539569.2041342086</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.113008504191589e-06</v>
+        <v>5.561162510730223e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.013888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>452006.3295909935</v>
+        <v>488073.4765817733</v>
       </c>
     </row>
     <row r="6">
@@ -62065,28 +62065,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>338.9553467445651</v>
+        <v>377.725062853603</v>
       </c>
       <c r="AB6" t="n">
-        <v>463.7736590704374</v>
+        <v>516.8200950499838</v>
       </c>
       <c r="AC6" t="n">
-        <v>419.5117519591727</v>
+        <v>467.4955105399717</v>
       </c>
       <c r="AD6" t="n">
-        <v>338955.3467445651</v>
+        <v>377725.062853603</v>
       </c>
       <c r="AE6" t="n">
-        <v>463773.6590704374</v>
+        <v>516820.0950499838</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.199166517337902e-06</v>
+        <v>5.715077513552454e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.826388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>419511.7519591727</v>
+        <v>467495.5105399717</v>
       </c>
     </row>
     <row r="7">
@@ -62171,28 +62171,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>328.1678382466293</v>
+        <v>366.9375543556672</v>
       </c>
       <c r="AB7" t="n">
-        <v>449.0137140322749</v>
+        <v>502.0601500118212</v>
       </c>
       <c r="AC7" t="n">
-        <v>406.1604753597395</v>
+        <v>454.1442339405384</v>
       </c>
       <c r="AD7" t="n">
-        <v>328167.8382466293</v>
+        <v>366937.5543556672</v>
       </c>
       <c r="AE7" t="n">
-        <v>449013.7140322749</v>
+        <v>502060.1500118212</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.253880000138844e-06</v>
+        <v>5.81281915768044e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.711111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>406160.4753597394</v>
+        <v>454144.2339405384</v>
       </c>
     </row>
     <row r="8">
@@ -62277,28 +62277,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>318.7189678894055</v>
+        <v>357.4886839984434</v>
       </c>
       <c r="AB8" t="n">
-        <v>436.0853527547811</v>
+        <v>489.1317887343276</v>
       </c>
       <c r="AC8" t="n">
-        <v>394.4659787375007</v>
+        <v>442.4497373182997</v>
       </c>
       <c r="AD8" t="n">
-        <v>318718.9678894055</v>
+        <v>357488.6839984434</v>
       </c>
       <c r="AE8" t="n">
-        <v>436085.3527547811</v>
+        <v>489131.7887343276</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.299631791791357e-06</v>
+        <v>5.894551394580566e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.618055555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>394465.9787375007</v>
+        <v>442449.7373182997</v>
       </c>
     </row>
     <row r="9">
@@ -62383,28 +62383,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>312.0062724711234</v>
+        <v>341.2329060484021</v>
       </c>
       <c r="AB9" t="n">
-        <v>426.9007467402665</v>
+        <v>466.8899161887722</v>
       </c>
       <c r="AC9" t="n">
-        <v>386.1579386303358</v>
+        <v>422.3305978718279</v>
       </c>
       <c r="AD9" t="n">
-        <v>312006.2724711234</v>
+        <v>341232.9060484021</v>
       </c>
       <c r="AE9" t="n">
-        <v>426900.7467402664</v>
+        <v>466889.9161887722</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.328560759709097e-06</v>
+        <v>5.946230884579271e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.559722222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>386157.9386303358</v>
+        <v>422330.5978718279</v>
       </c>
     </row>
     <row r="10">
@@ -62489,28 +62489,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>304.8662329338669</v>
+        <v>334.0928665111456</v>
       </c>
       <c r="AB10" t="n">
-        <v>417.1314296490791</v>
+        <v>457.1205990975849</v>
       </c>
       <c r="AC10" t="n">
-        <v>377.3209914510087</v>
+        <v>413.4936506925009</v>
       </c>
       <c r="AD10" t="n">
-        <v>304866.2329338669</v>
+        <v>334092.8665111457</v>
       </c>
       <c r="AE10" t="n">
-        <v>417131.4296490791</v>
+        <v>457120.599097585</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.355288610502661e-06</v>
+        <v>5.993978239469379e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.508333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>377320.9914510087</v>
+        <v>413493.6506925009</v>
       </c>
     </row>
     <row r="11">
@@ -62595,28 +62595,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>298.7770153782143</v>
+        <v>327.8330567549008</v>
       </c>
       <c r="AB11" t="n">
-        <v>408.7998935521161</v>
+        <v>448.5556512257749</v>
       </c>
       <c r="AC11" t="n">
-        <v>369.7846054657556</v>
+        <v>405.7461294245967</v>
       </c>
       <c r="AD11" t="n">
-        <v>298777.0153782143</v>
+        <v>327833.0567549008</v>
       </c>
       <c r="AE11" t="n">
-        <v>408799.8935521161</v>
+        <v>448555.6512257749</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.374941441968517e-06</v>
+        <v>6.029086588653281e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.469444444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>369784.6054657556</v>
+        <v>405746.1294245967</v>
       </c>
     </row>
     <row r="12">
@@ -62701,28 +62701,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>293.3357516290171</v>
+        <v>322.3917930057036</v>
       </c>
       <c r="AB12" t="n">
-        <v>401.3549164388499</v>
+        <v>441.1106741125087</v>
       </c>
       <c r="AC12" t="n">
-        <v>363.0501665190885</v>
+        <v>399.0116904779295</v>
       </c>
       <c r="AD12" t="n">
-        <v>293335.7516290171</v>
+        <v>322391.7930057036</v>
       </c>
       <c r="AE12" t="n">
-        <v>401354.9164388499</v>
+        <v>441110.6741125087</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.389877593882568e-06</v>
+        <v>6.055768934033047e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.441666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>363050.1665190884</v>
+        <v>399011.6904779295</v>
       </c>
     </row>
     <row r="13">
@@ -62807,28 +62807,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>289.2871880924754</v>
+        <v>318.343229469162</v>
       </c>
       <c r="AB13" t="n">
-        <v>395.815493198136</v>
+        <v>435.5712508717949</v>
       </c>
       <c r="AC13" t="n">
-        <v>358.0394180578389</v>
+        <v>394.0009420166801</v>
       </c>
       <c r="AD13" t="n">
-        <v>289287.1880924754</v>
+        <v>318343.229469162</v>
       </c>
       <c r="AE13" t="n">
-        <v>395815.493198136</v>
+        <v>435571.2508717949</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.399310952986179e-06</v>
+        <v>6.072620941641321e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.423611111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>358039.4180578389</v>
+        <v>394000.9420166801</v>
       </c>
     </row>
     <row r="14">
@@ -62913,28 +62913,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>288.2762016179303</v>
+        <v>317.3322429946169</v>
       </c>
       <c r="AB14" t="n">
-        <v>394.432216902088</v>
+        <v>434.1879745757468</v>
       </c>
       <c r="AC14" t="n">
-        <v>356.7881597100453</v>
+        <v>392.7496836688863</v>
       </c>
       <c r="AD14" t="n">
-        <v>288276.2016179303</v>
+        <v>317332.2429946169</v>
       </c>
       <c r="AE14" t="n">
-        <v>394432.216902088</v>
+        <v>434187.9745757468</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.404813745796618e-06</v>
+        <v>6.082451279412815e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.413888888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>356788.1597100453</v>
+        <v>392749.6836688864</v>
       </c>
     </row>
     <row r="15">
@@ -63019,28 +63019,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>289.3545966298761</v>
+        <v>318.4106380065626</v>
       </c>
       <c r="AB15" t="n">
-        <v>395.9077245328623</v>
+        <v>435.6634822065211</v>
       </c>
       <c r="AC15" t="n">
-        <v>358.1228469634265</v>
+        <v>394.0843709222676</v>
       </c>
       <c r="AD15" t="n">
-        <v>289354.5966298761</v>
+        <v>318410.6380065626</v>
       </c>
       <c r="AE15" t="n">
-        <v>395907.7245328624</v>
+        <v>435663.4822065211</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.403555964582804e-06</v>
+        <v>6.080204345065045e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.415277777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>358122.8469634264</v>
+        <v>394084.3709222676</v>
       </c>
     </row>
   </sheetData>
